--- a/file.xlsx
+++ b/file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RADIK\botRadik\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Табки\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180E2B07-E87E-4F9E-A2CE-45C614946939}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00071E61-30AB-41D0-9973-EFA2343076A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="9072" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="75">
   <si>
     <t>Понедельник</t>
   </si>
@@ -156,33 +156,9 @@
     <t>Суббота</t>
   </si>
   <si>
-    <t>Лек. Теор. автоматов и форм. языков 206-1</t>
-  </si>
-  <si>
-    <t>Лаб. Теор. автоматов и форм. языков 106</t>
-  </si>
-  <si>
-    <t>Упр. Теор. автоматов и форм. языков 206-5</t>
-  </si>
-  <si>
     <t>Лек. Деловые коммуникации 358</t>
   </si>
   <si>
-    <t xml:space="preserve">Лек. Комп. графика 337 </t>
-  </si>
-  <si>
-    <t>Лаб. Комп. графика 50</t>
-  </si>
-  <si>
-    <t>Упр. Деловые коммуникации 314</t>
-  </si>
-  <si>
-    <t>Лек. ОС Linux 337</t>
-  </si>
-  <si>
-    <t>Упр. ОС Linux 50а</t>
-  </si>
-  <si>
     <t>1 пара</t>
   </si>
   <si>
@@ -204,49 +180,79 @@
     <t>Лек. ПОЭИС 106а</t>
   </si>
   <si>
-    <t>Лек. Архитектура ВС 206-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Лаб. ФП 106а </t>
-  </si>
-  <si>
-    <t>Лаб. (Лек.) ПОЭИС  206-3 (302)</t>
-  </si>
-  <si>
-    <t>Упр. ФП 206-3</t>
-  </si>
-  <si>
-    <t>Лаб. ППИ 106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Лек. РиАТкПО 206-1 </t>
-  </si>
-  <si>
-    <t>Лек. ППИ 258</t>
-  </si>
-  <si>
-    <t>Лаб. Архитектура ВС 206-5</t>
-  </si>
-  <si>
-    <t>Лек. ППС 106а</t>
-  </si>
-  <si>
-    <t>Лаб. ППС 206-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Лаб. РиАТкПО 206-5 </t>
-  </si>
-  <si>
-    <t>Упр. УПП 206-5</t>
-  </si>
-  <si>
-    <t>Упр. Архитектура ВС 206-5</t>
-  </si>
-  <si>
-    <t>Лек. ФП 206-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Лаб. ПОЭИС 106а </t>
+    <t>11:40 13:15</t>
+  </si>
+  <si>
+    <t>13:35 15:10</t>
+  </si>
+  <si>
+    <t>15:20 16:55</t>
+  </si>
+  <si>
+    <t>17:05 18:40</t>
+  </si>
+  <si>
+    <t>18:50 20:15</t>
+  </si>
+  <si>
+    <t>08:10 09:45</t>
+  </si>
+  <si>
+    <t>09:55 11:30</t>
+  </si>
+  <si>
+    <t>Лаб. Вычисл. математика 106а</t>
+  </si>
+  <si>
+    <t>Лаб. Web-програм. 206-3</t>
+  </si>
+  <si>
+    <t>Лек. Web-программирование 206-1</t>
+  </si>
+  <si>
+    <t>Лек. Основы ОНИ 206-1</t>
+  </si>
+  <si>
+    <t>Лек. Экономика ПИ 206-2</t>
+  </si>
+  <si>
+    <t>Упр. Экономика ПИ 206-2</t>
+  </si>
+  <si>
+    <t>Лаб. Тестирование ПО 206-4 13.02 12.03 09.04 07.05</t>
+  </si>
+  <si>
+    <t>Лаб. ПОЭИС 106а</t>
+  </si>
+  <si>
+    <t>Лек. Конструир-е ПО 206-1</t>
+  </si>
+  <si>
+    <t>Лаб. Конструир-е ПО 106</t>
+  </si>
+  <si>
+    <t>Лек. ППС 206-1</t>
+  </si>
+  <si>
+    <t>Лаб. ППС 106а</t>
+  </si>
+  <si>
+    <t>Упр. НИР 206-2</t>
+  </si>
+  <si>
+    <t>Упр. ПОЭИС 106а</t>
+  </si>
+  <si>
+    <t>Лек. Тестирование ПО 206-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лек. Вычисл. математика 206-1 </t>
+  </si>
+  <si>
+    <t>Упр. Основы ОНИ 206-3</t>
+  </si>
+  <si>
+    <t>Упр. Деловые коммуникации 320</t>
   </si>
 </sst>
 </file>
@@ -297,31 +303,28 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
+      <sz val="9"/>
+      <name val="Montserrat"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Montserrat"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
+      <name val="Montserrat Medium"/>
       <charset val="204"/>
     </font>
     <font>
-      <sz val="14"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="12"/>
+      <name val="Montserrat Medium"/>
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -394,8 +397,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="47">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -739,17 +748,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -923,19 +921,6 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -964,22 +949,63 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -987,7 +1013,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1097,70 +1123,43 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="7" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="7" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="7" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="7" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1169,38 +1168,44 @@
     <xf numFmtId="20" fontId="7" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="12" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="8" fillId="12" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="9" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1220,55 +1225,109 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="12" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="9" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="12" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1295,9 +1354,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1335,9 +1394,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1370,26 +1429,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1422,26 +1464,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1624,16 +1649,16 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="6.5546875" style="34" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" style="34" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" style="34" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" style="34" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="19.33203125" style="34" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" style="34" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="12"/>
+    <col min="1" max="1" width="9.140625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" style="34" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" style="34" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="34" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="19.28515625" style="34" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" style="34" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
@@ -1647,12 +1672,12 @@
       <c r="H1" s="29"/>
       <c r="I1" s="29"/>
     </row>
-    <row r="2" spans="1:10" ht="13.95" customHeight="1" thickBot="1">
+    <row r="2" spans="1:10" ht="13.9" customHeight="1" thickBot="1">
       <c r="A2" s="18"/>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="73"/>
+      <c r="C2" s="66"/>
       <c r="D2" s="20" t="s">
         <v>0</v>
       </c>
@@ -1670,18 +1695,18 @@
       </c>
       <c r="I2" s="30"/>
     </row>
-    <row r="3" spans="1:10" s="13" customFormat="1" ht="20.399999999999999" customHeight="1">
+    <row r="3" spans="1:10" s="13" customFormat="1" ht="20.45" customHeight="1">
       <c r="A3" s="19"/>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="69" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="74" t="s">
+      <c r="D3" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="74" t="s">
+      <c r="E3" s="67" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="26"/>
@@ -1691,14 +1716,14 @@
       <c r="H3" s="3"/>
       <c r="I3" s="31"/>
     </row>
-    <row r="4" spans="1:10" s="13" customFormat="1" ht="20.399999999999999" customHeight="1" thickBot="1">
+    <row r="4" spans="1:10" s="13" customFormat="1" ht="20.45" customHeight="1" thickBot="1">
       <c r="A4" s="19"/>
-      <c r="B4" s="77"/>
+      <c r="B4" s="70"/>
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5" t="s">
         <v>26</v>
@@ -1707,21 +1732,21 @@
       <c r="I4" s="31"/>
       <c r="J4" s="32"/>
     </row>
-    <row r="5" spans="1:10" s="13" customFormat="1" ht="20.399999999999999" customHeight="1">
+    <row r="5" spans="1:10" s="13" customFormat="1" ht="20.45" customHeight="1">
       <c r="A5" s="19"/>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="69" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="67" t="s">
         <v>36</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="74" t="s">
+      <c r="F5" s="67" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="23" t="s">
@@ -1731,17 +1756,17 @@
       <c r="I5" s="31"/>
       <c r="J5" s="32"/>
     </row>
-    <row r="6" spans="1:10" s="13" customFormat="1" ht="20.399999999999999" customHeight="1" thickBot="1">
+    <row r="6" spans="1:10" s="13" customFormat="1" ht="20.45" customHeight="1" thickBot="1">
       <c r="A6" s="19"/>
-      <c r="B6" s="77"/>
+      <c r="B6" s="70"/>
       <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="75"/>
+      <c r="D6" s="68"/>
       <c r="E6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="75"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="5" t="s">
         <v>13</v>
       </c>
@@ -1751,9 +1776,9 @@
       <c r="I6" s="31"/>
       <c r="J6" s="32"/>
     </row>
-    <row r="7" spans="1:10" s="13" customFormat="1" ht="20.399999999999999" customHeight="1">
+    <row r="7" spans="1:10" s="13" customFormat="1" ht="20.45" customHeight="1">
       <c r="A7" s="19"/>
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="69" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -1768,16 +1793,16 @@
       <c r="F7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="74" t="s">
+      <c r="G7" s="67" t="s">
         <v>5</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="31"/>
       <c r="J7" s="32"/>
     </row>
-    <row r="8" spans="1:10" s="13" customFormat="1" ht="20.399999999999999" customHeight="1" thickBot="1">
+    <row r="8" spans="1:10" s="13" customFormat="1" ht="20.45" customHeight="1" thickBot="1">
       <c r="A8" s="19"/>
-      <c r="B8" s="77"/>
+      <c r="B8" s="70"/>
       <c r="C8" s="4" t="s">
         <v>7</v>
       </c>
@@ -1790,16 +1815,16 @@
       <c r="F8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="75"/>
+      <c r="G8" s="68"/>
       <c r="H8" s="10" t="s">
         <v>27</v>
       </c>
       <c r="I8" s="31"/>
       <c r="J8" s="32"/>
     </row>
-    <row r="9" spans="1:10" s="13" customFormat="1" ht="20.399999999999999" customHeight="1">
+    <row r="9" spans="1:10" s="13" customFormat="1" ht="20.45" customHeight="1">
       <c r="A9" s="19"/>
-      <c r="B9" s="76" t="s">
+      <c r="B9" s="69" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -1809,7 +1834,7 @@
       <c r="E9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="74" t="s">
+      <c r="F9" s="67" t="s">
         <v>25</v>
       </c>
       <c r="G9" s="27" t="s">
@@ -1819,9 +1844,9 @@
       <c r="I9" s="31"/>
       <c r="J9" s="32"/>
     </row>
-    <row r="10" spans="1:10" s="13" customFormat="1" ht="20.399999999999999" customHeight="1" thickBot="1">
+    <row r="10" spans="1:10" s="13" customFormat="1" ht="20.45" customHeight="1" thickBot="1">
       <c r="A10" s="19"/>
-      <c r="B10" s="77"/>
+      <c r="B10" s="70"/>
       <c r="C10" s="4" t="s">
         <v>7</v>
       </c>
@@ -1829,7 +1854,7 @@
       <c r="E10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="75"/>
+      <c r="F10" s="68"/>
       <c r="G10" s="5"/>
       <c r="H10" s="10"/>
       <c r="I10" s="31"/>
@@ -1856,7 +1881,7 @@
       </c>
       <c r="J13" s="33"/>
     </row>
-    <row r="14" spans="1:10" ht="13.8" thickBot="1">
+    <row r="14" spans="1:10" ht="13.5" thickBot="1">
       <c r="B14"/>
       <c r="J14" s="33"/>
     </row>
@@ -2048,536 +2073,478 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7BD5C26-A9FD-4630-947E-E22400BE4D9A}">
-  <dimension ref="B1:S24"/>
+  <dimension ref="B1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="36" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" style="36" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" style="36" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="2.88671875" style="36" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" style="63" customWidth="1"/>
-    <col min="6" max="7" width="21.88671875" style="36" customWidth="1"/>
-    <col min="8" max="8" width="3.33203125" style="36" customWidth="1"/>
-    <col min="9" max="9" width="2.88671875" style="36" customWidth="1"/>
-    <col min="10" max="10" width="7.33203125" style="63" customWidth="1"/>
-    <col min="11" max="12" width="21.88671875" style="36" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="36"/>
+    <col min="1" max="1" width="8.85546875" style="36" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" style="36" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="36" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="2.5703125" style="36" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" style="36" customWidth="1"/>
+    <col min="6" max="7" width="19.5703125" style="36" customWidth="1"/>
+    <col min="8" max="8" width="2.7109375" style="36" customWidth="1"/>
+    <col min="9" max="9" width="2.5703125" style="36" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="19.5703125" style="36" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="13.8" thickBot="1"/>
+    <row r="1" spans="2:19" ht="14.25" thickBot="1"/>
     <row r="2" spans="2:19" ht="27" customHeight="1">
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="52">
+      <c r="D2" s="40">
         <v>1</v>
       </c>
-      <c r="E2" s="65" t="s">
+      <c r="E2" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="40">
+        <v>1</v>
+      </c>
+      <c r="J2" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="72"/>
+      <c r="L2" s="73"/>
+    </row>
+    <row r="3" spans="2:19" ht="27" customHeight="1">
+      <c r="B3" s="84"/>
+      <c r="C3" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="43">
+        <v>2</v>
+      </c>
+      <c r="E3" s="89" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="87"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="43">
+        <v>2</v>
+      </c>
+      <c r="J3" s="74"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="76"/>
+    </row>
+    <row r="4" spans="2:19" ht="27" customHeight="1">
+      <c r="B4" s="84"/>
+      <c r="C4" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="45"/>
-      <c r="G2" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" s="87" t="s">
+      <c r="D4" s="43">
         <v>3</v>
       </c>
-      <c r="I2" s="52">
+      <c r="E4" s="90" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="81"/>
+      <c r="I4" s="43">
+        <v>3</v>
+      </c>
+      <c r="J4" s="74"/>
+      <c r="K4" s="75"/>
+      <c r="L4" s="76"/>
+    </row>
+    <row r="5" spans="2:19" ht="27" customHeight="1" thickBot="1">
+      <c r="B5" s="84"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="43">
+        <v>4</v>
+      </c>
+      <c r="E5" s="91" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="56"/>
+      <c r="G5" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="82"/>
+      <c r="I5" s="43">
+        <v>4</v>
+      </c>
+      <c r="J5" s="77"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="79"/>
+    </row>
+    <row r="6" spans="2:19" ht="27" customHeight="1">
+      <c r="B6" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="78" t="s">
+      <c r="C6" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="40">
+        <v>1</v>
+      </c>
+      <c r="E6" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="92" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="40">
+        <v>1</v>
+      </c>
+      <c r="J6" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="103" t="s">
+        <v>69</v>
+      </c>
+      <c r="L6" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+    </row>
+    <row r="7" spans="2:19" ht="27" customHeight="1">
+      <c r="B7" s="81"/>
+      <c r="C7" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="43">
+        <v>2</v>
+      </c>
+      <c r="E7" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="79"/>
-      <c r="L2" s="80"/>
-    </row>
-    <row r="3" spans="2:19" ht="27" customHeight="1">
-      <c r="B3" s="91"/>
-      <c r="C3" s="38" t="s">
+      <c r="F7" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="93"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="43">
+        <v>2</v>
+      </c>
+      <c r="J7" s="89" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="104"/>
+      <c r="L7" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+    </row>
+    <row r="8" spans="2:19" ht="27" customHeight="1">
+      <c r="B8" s="81"/>
+      <c r="C8" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="43">
+        <v>3</v>
+      </c>
+      <c r="E8" s="90" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="52"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="43">
+        <v>3</v>
+      </c>
+      <c r="J8" s="90" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="104"/>
+      <c r="L8" s="55"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+    </row>
+    <row r="9" spans="2:19" ht="27" customHeight="1" thickBot="1">
+      <c r="B9" s="81"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="94">
+        <v>4</v>
+      </c>
+      <c r="E9" s="95" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="96"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="43">
+        <v>4</v>
+      </c>
+      <c r="J9" s="91" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="105"/>
+      <c r="L9" s="57"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
+    </row>
+    <row r="10" spans="2:19" ht="27" customHeight="1">
+      <c r="B10" s="80" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="40">
+        <v>1</v>
+      </c>
+      <c r="E10" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="97" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="98"/>
+      <c r="H10" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="40">
+        <v>1</v>
+      </c>
+      <c r="J10" s="102" t="s">
+        <v>55</v>
+      </c>
+      <c r="K10" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+    </row>
+    <row r="11" spans="2:19" ht="27" customHeight="1">
+      <c r="B11" s="81"/>
+      <c r="C11" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="54">
+      <c r="D11" s="43">
         <v>2</v>
       </c>
-      <c r="E3" s="66" t="s">
+      <c r="E11" s="89" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="63" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="84"/>
+      <c r="I11" s="43">
+        <v>2</v>
+      </c>
+      <c r="J11" s="90" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="38"/>
+    </row>
+    <row r="12" spans="2:19" ht="27" customHeight="1">
+      <c r="B12" s="81"/>
+      <c r="C12" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="43">
+        <v>3</v>
+      </c>
+      <c r="E12" s="90" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="84"/>
+      <c r="I12" s="43">
+        <v>3</v>
+      </c>
+      <c r="J12" s="89" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="L12" s="64"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="38"/>
+      <c r="R12" s="38"/>
+      <c r="S12" s="38"/>
+    </row>
+    <row r="13" spans="2:19" ht="27" customHeight="1" thickBot="1">
+      <c r="B13" s="82"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="100">
+        <v>4</v>
+      </c>
+      <c r="E13" s="91" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="59"/>
+      <c r="G13" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="85"/>
+      <c r="I13" s="100">
+        <v>4</v>
+      </c>
+      <c r="J13" s="91" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13" s="61"/>
+      <c r="L13" s="101"/>
+      <c r="O13" s="38"/>
+      <c r="P13" s="38"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="38"/>
+    </row>
+    <row r="14" spans="2:19" s="38" customFormat="1"/>
+    <row r="15" spans="2:19" s="38" customFormat="1" ht="24" customHeight="1" thickBot="1"/>
+    <row r="16" spans="2:19" s="38" customFormat="1" ht="24" customHeight="1">
+      <c r="F16" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="L16" s="50" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="6:12" s="38" customFormat="1" ht="24" customHeight="1">
+      <c r="F17" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="71" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="88"/>
-      <c r="I3" s="54">
-        <v>2</v>
-      </c>
-      <c r="J3" s="81"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="83"/>
-    </row>
-    <row r="4" spans="2:19" ht="27" customHeight="1">
-      <c r="B4" s="91"/>
-      <c r="C4" s="39" t="s">
+      <c r="K17" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17" s="45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="6:12" s="38" customFormat="1" ht="24" customHeight="1">
+      <c r="F18" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="K18" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="54">
-        <v>3</v>
-      </c>
-      <c r="E4" s="67" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="88"/>
-      <c r="I4" s="54">
-        <v>3</v>
-      </c>
-      <c r="J4" s="81"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="83"/>
-    </row>
-    <row r="5" spans="2:19" ht="27" customHeight="1" thickBot="1">
-      <c r="B5" s="91"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="54">
-        <v>4</v>
-      </c>
-      <c r="E5" s="66" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="61"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="54">
-        <v>4</v>
-      </c>
-      <c r="J5" s="84"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="86"/>
-    </row>
-    <row r="6" spans="2:19" ht="27" customHeight="1">
-      <c r="B6" s="87" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="52">
-        <v>1</v>
-      </c>
-      <c r="E6" s="65" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="H6" s="88" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="52">
-        <v>1</v>
-      </c>
-      <c r="J6" s="65" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="45" t="s">
+    </row>
+    <row r="19" spans="6:12" s="38" customFormat="1" ht="24" customHeight="1">
+      <c r="F19" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19" s="45" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="6:12" s="38" customFormat="1" ht="24" customHeight="1" thickBot="1">
+      <c r="F20" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="L6" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="35"/>
-    </row>
-    <row r="7" spans="2:19" ht="27" customHeight="1">
-      <c r="B7" s="88"/>
-      <c r="C7" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="54">
-        <v>2</v>
-      </c>
-      <c r="E7" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" s="88"/>
-      <c r="I7" s="54">
-        <v>2</v>
-      </c>
-      <c r="J7" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="K7" s="62" t="s">
-        <v>70</v>
-      </c>
-      <c r="L7" s="43" t="s">
+      <c r="G20" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="35"/>
-    </row>
-    <row r="8" spans="2:19" ht="27" customHeight="1">
-      <c r="B8" s="88"/>
-      <c r="C8" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="54">
-        <v>3</v>
-      </c>
-      <c r="E8" s="67" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="88"/>
-      <c r="I8" s="54">
-        <v>3</v>
-      </c>
-      <c r="J8" s="67" t="s">
-        <v>53</v>
-      </c>
-      <c r="K8" s="46"/>
-      <c r="L8" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35"/>
-      <c r="S8" s="35"/>
-    </row>
-    <row r="9" spans="2:19" ht="27" customHeight="1" thickBot="1">
-      <c r="B9" s="88"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="54">
-        <v>4</v>
-      </c>
-      <c r="E9" s="66" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="58" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9" s="44"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="54">
-        <v>4</v>
-      </c>
-      <c r="J9" s="66" t="s">
-        <v>54</v>
-      </c>
-      <c r="K9" s="47"/>
-      <c r="L9" s="44"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35"/>
-      <c r="S9" s="35"/>
-    </row>
-    <row r="10" spans="2:19" ht="27" customHeight="1">
-      <c r="B10" s="87" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="52">
-        <v>1</v>
-      </c>
-      <c r="E10" s="65" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="42"/>
-      <c r="H10" s="90" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="52">
-        <v>1</v>
-      </c>
-      <c r="J10" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" s="45"/>
-      <c r="L10" s="42"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
-      <c r="S10" s="35"/>
-    </row>
-    <row r="11" spans="2:19" ht="27" customHeight="1">
-      <c r="B11" s="88"/>
-      <c r="C11" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="54">
-        <v>2</v>
-      </c>
-      <c r="E11" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="93" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="94"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="54">
-        <v>2</v>
-      </c>
-      <c r="J11" s="66" t="s">
-        <v>32</v>
-      </c>
-      <c r="K11" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="L11" s="48"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="35"/>
-    </row>
-    <row r="12" spans="2:19" ht="27" customHeight="1">
-      <c r="B12" s="88"/>
-      <c r="C12" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="54">
-        <v>3</v>
-      </c>
-      <c r="E12" s="67" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="43" t="s">
+      <c r="K20" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="L20" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="91"/>
-      <c r="I12" s="54">
-        <v>3</v>
-      </c>
-      <c r="J12" s="67" t="s">
-        <v>33</v>
-      </c>
-      <c r="K12" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="L12" s="48"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="35"/>
-      <c r="S12" s="35"/>
-    </row>
-    <row r="13" spans="2:19" ht="27" customHeight="1">
-      <c r="B13" s="88"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="54">
-        <v>4</v>
-      </c>
-      <c r="E13" s="66" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="H13" s="91"/>
-      <c r="I13" s="54">
-        <v>4</v>
-      </c>
-      <c r="J13" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="K13" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="L13" s="51"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="35"/>
-    </row>
-    <row r="14" spans="2:19" ht="27" customHeight="1" thickBot="1">
-      <c r="B14" s="89"/>
-      <c r="C14" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="55">
-        <v>5</v>
-      </c>
-      <c r="E14" s="68" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="47"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="55">
-        <v>5</v>
-      </c>
-      <c r="J14" s="69" t="s">
-        <v>53</v>
-      </c>
-      <c r="K14" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="L14" s="44"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="35"/>
-    </row>
-    <row r="15" spans="2:19" s="35" customFormat="1">
-      <c r="E15" s="64"/>
-      <c r="J15" s="64"/>
-    </row>
-    <row r="16" spans="2:19" s="35" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="E16" s="64"/>
-      <c r="J16" s="64"/>
-    </row>
-    <row r="17" spans="5:12" s="35" customFormat="1" ht="24" customHeight="1">
-      <c r="E17" s="64"/>
-      <c r="F17" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="G17" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" s="64"/>
-      <c r="K17" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="L17" s="59" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="5:12" s="35" customFormat="1" ht="24" customHeight="1">
-      <c r="E18" s="64"/>
-      <c r="F18" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="J18" s="64"/>
-      <c r="K18" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="L18" s="43" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="5:12" s="35" customFormat="1" ht="24" customHeight="1">
-      <c r="E19" s="64"/>
-      <c r="F19" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="J19" s="64"/>
-      <c r="K19" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="L19" s="48" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="5:12" s="35" customFormat="1" ht="24" customHeight="1">
-      <c r="E20" s="64"/>
-      <c r="F20" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="J20" s="64"/>
-      <c r="K20" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="L20" s="43" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="5:12" s="35" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="E21" s="64"/>
-      <c r="F21" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="J21" s="64"/>
-      <c r="K21" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="L21" s="60" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="5:12" s="35" customFormat="1" ht="24" customHeight="1">
-      <c r="E22" s="64"/>
-      <c r="J22" s="64"/>
-    </row>
-    <row r="23" spans="5:12" s="35" customFormat="1" ht="24" customHeight="1">
-      <c r="E23" s="64"/>
-      <c r="J23" s="64"/>
-    </row>
-    <row r="24" spans="5:12" s="35" customFormat="1" ht="24" customHeight="1">
-      <c r="E24" s="64"/>
-      <c r="J24" s="64"/>
-    </row>
+    </row>
+    <row r="21" spans="6:12" s="38" customFormat="1" ht="24" customHeight="1"/>
+    <row r="22" spans="6:12" s="38" customFormat="1" ht="24" customHeight="1"/>
+    <row r="23" spans="6:12" s="38" customFormat="1" ht="24" customHeight="1"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
     <mergeCell ref="J2:L5"/>
-    <mergeCell ref="B10:B14"/>
+    <mergeCell ref="B10:B13"/>
     <mergeCell ref="H2:H5"/>
     <mergeCell ref="H6:H9"/>
-    <mergeCell ref="H10:H14"/>
+    <mergeCell ref="H10:H13"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B9"/>
-    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="K6:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/file.xlsx
+++ b/file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\Табки\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arkhi\Desktop\Работа\Python\botRadik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00071E61-30AB-41D0-9973-EFA2343076A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95FD2EE3-24E6-4325-87A6-CB5437D2A069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="2415" windowWidth="16905" windowHeight="13785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="67">
   <si>
     <t>Понедельник</t>
   </si>
@@ -132,9 +132,6 @@
     <t>11:40 - 13:15</t>
   </si>
   <si>
-    <t>13:35 - 15:10</t>
-  </si>
-  <si>
     <t>Лек. Высшмат 448</t>
   </si>
   <si>
@@ -144,39 +141,15 @@
     <t>Лек. Экономика 502к.2</t>
   </si>
   <si>
-    <t>2 пара</t>
-  </si>
-  <si>
-    <t>3 пара</t>
-  </si>
-  <si>
-    <t>4 пара</t>
-  </si>
-  <si>
     <t>Суббота</t>
   </si>
   <si>
     <t>Лек. Деловые коммуникации 358</t>
   </si>
   <si>
-    <t>1 пара</t>
-  </si>
-  <si>
     <t>Военная подготовка</t>
   </si>
   <si>
-    <t>15:20 - 16:55</t>
-  </si>
-  <si>
-    <t>17:05 - 18:40</t>
-  </si>
-  <si>
-    <t>5 пара</t>
-  </si>
-  <si>
-    <t>18:50 - 20:15</t>
-  </si>
-  <si>
     <t>Лек. ПОЭИС 106а</t>
   </si>
   <si>
@@ -219,9 +192,6 @@
     <t>Упр. Экономика ПИ 206-2</t>
   </si>
   <si>
-    <t>Лаб. Тестирование ПО 206-4 13.02 12.03 09.04 07.05</t>
-  </si>
-  <si>
     <t>Лаб. ПОЭИС 106а</t>
   </si>
   <si>
@@ -253,6 +223,12 @@
   </si>
   <si>
     <t>Упр. Деловые коммуникации 320</t>
+  </si>
+  <si>
+    <t>Лаб. Тестирование ПО 206-4</t>
+  </si>
+  <si>
+    <t>Упр. Web-програм. 206-4</t>
   </si>
 </sst>
 </file>
@@ -324,7 +300,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -397,14 +373,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="48">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -707,19 +677,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -973,19 +930,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1007,13 +951,61 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1123,64 +1115,40 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
     <xf numFmtId="20" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="7" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="7" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="7" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="7" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1201,12 +1169,66 @@
     <xf numFmtId="20" fontId="9" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="12" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="9" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="12" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1225,32 +1247,35 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
@@ -1258,7 +1283,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1267,68 +1292,17 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="7" fillId="12" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="9" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="7" fillId="12" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1354,9 +1328,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1394,9 +1368,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1429,9 +1403,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1464,9 +1455,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1674,10 +1682,10 @@
     </row>
     <row r="2" spans="1:10" ht="13.9" customHeight="1" thickBot="1">
       <c r="A2" s="18"/>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="66"/>
+      <c r="C2" s="76"/>
       <c r="D2" s="20" t="s">
         <v>0</v>
       </c>
@@ -1697,16 +1705,16 @@
     </row>
     <row r="3" spans="1:10" s="13" customFormat="1" ht="20.45" customHeight="1">
       <c r="A3" s="19"/>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="79" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="67" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="67" t="s">
+      <c r="D3" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="77" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="26"/>
@@ -1718,12 +1726,12 @@
     </row>
     <row r="4" spans="1:10" s="13" customFormat="1" ht="20.45" customHeight="1" thickBot="1">
       <c r="A4" s="19"/>
-      <c r="B4" s="70"/>
+      <c r="B4" s="80"/>
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5" t="s">
         <v>26</v>
@@ -1734,19 +1742,19 @@
     </row>
     <row r="5" spans="1:10" s="13" customFormat="1" ht="20.45" customHeight="1">
       <c r="A5" s="19"/>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="79" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="67" t="s">
-        <v>36</v>
+      <c r="D5" s="77" t="s">
+        <v>35</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="67" t="s">
+      <c r="F5" s="77" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="23" t="s">
@@ -1758,15 +1766,15 @@
     </row>
     <row r="6" spans="1:10" s="13" customFormat="1" ht="20.45" customHeight="1" thickBot="1">
       <c r="A6" s="19"/>
-      <c r="B6" s="70"/>
+      <c r="B6" s="80"/>
       <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="68"/>
+      <c r="D6" s="78"/>
       <c r="E6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="68"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="5" t="s">
         <v>13</v>
       </c>
@@ -1778,14 +1786,14 @@
     </row>
     <row r="7" spans="1:10" s="13" customFormat="1" ht="20.45" customHeight="1">
       <c r="A7" s="19"/>
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="79" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>11</v>
@@ -1793,7 +1801,7 @@
       <c r="F7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="67" t="s">
+      <c r="G7" s="77" t="s">
         <v>5</v>
       </c>
       <c r="H7" s="9"/>
@@ -1802,7 +1810,7 @@
     </row>
     <row r="8" spans="1:10" s="13" customFormat="1" ht="20.45" customHeight="1" thickBot="1">
       <c r="A8" s="19"/>
-      <c r="B8" s="70"/>
+      <c r="B8" s="80"/>
       <c r="C8" s="4" t="s">
         <v>7</v>
       </c>
@@ -1815,7 +1823,7 @@
       <c r="F8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="68"/>
+      <c r="G8" s="78"/>
       <c r="H8" s="10" t="s">
         <v>27</v>
       </c>
@@ -1824,7 +1832,7 @@
     </row>
     <row r="9" spans="1:10" s="13" customFormat="1" ht="20.45" customHeight="1">
       <c r="A9" s="19"/>
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="79" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -1834,7 +1842,7 @@
       <c r="E9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="67" t="s">
+      <c r="F9" s="77" t="s">
         <v>25</v>
       </c>
       <c r="G9" s="27" t="s">
@@ -1846,7 +1854,7 @@
     </row>
     <row r="10" spans="1:10" s="13" customFormat="1" ht="20.45" customHeight="1" thickBot="1">
       <c r="A10" s="19"/>
-      <c r="B10" s="70"/>
+      <c r="B10" s="80"/>
       <c r="C10" s="4" t="s">
         <v>7</v>
       </c>
@@ -1854,7 +1862,7 @@
       <c r="E10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="68"/>
+      <c r="F10" s="78"/>
       <c r="G10" s="5"/>
       <c r="H10" s="10"/>
       <c r="I10" s="31"/>
@@ -2073,10 +2081,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7BD5C26-A9FD-4630-947E-E22400BE4D9A}">
-  <dimension ref="B1:S23"/>
+  <dimension ref="B1:S16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.5"/>
@@ -2096,444 +2104,369 @@
   <sheetData>
     <row r="1" spans="2:19" ht="14.25" thickBot="1"/>
     <row r="2" spans="2:19" ht="27" customHeight="1">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="40">
+      <c r="D2" s="39">
         <v>1</v>
       </c>
-      <c r="E2" s="88" t="s">
+      <c r="E2" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="90" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="39">
+        <v>1</v>
+      </c>
+      <c r="J2" s="81" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="82"/>
+      <c r="L2" s="83"/>
+    </row>
+    <row r="3" spans="2:19" ht="27" customHeight="1">
+      <c r="B3" s="94"/>
+      <c r="C3" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="41">
+        <v>2</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="G3" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="91"/>
+      <c r="I3" s="41">
+        <v>2</v>
+      </c>
+      <c r="J3" s="84"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="86"/>
+    </row>
+    <row r="4" spans="2:19" ht="27" customHeight="1">
+      <c r="B4" s="94"/>
+      <c r="C4" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="41">
+        <v>3</v>
+      </c>
+      <c r="E4" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="44"/>
+      <c r="G4" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="91"/>
+      <c r="I4" s="41">
+        <v>3</v>
+      </c>
+      <c r="J4" s="84"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="86"/>
+    </row>
+    <row r="5" spans="2:19" ht="27" customHeight="1" thickBot="1">
+      <c r="B5" s="94"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="41">
+        <v>4</v>
+      </c>
+      <c r="E5" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="48"/>
+      <c r="G5" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="92"/>
+      <c r="I5" s="41">
+        <v>4</v>
+      </c>
+      <c r="J5" s="87"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="89"/>
+    </row>
+    <row r="6" spans="2:19" ht="27" customHeight="1">
+      <c r="B6" s="98" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="70"/>
+      <c r="D6" s="39">
+        <v>1</v>
+      </c>
+      <c r="E6" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="91"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="96" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+    </row>
+    <row r="7" spans="2:19" ht="27" customHeight="1">
+      <c r="B7" s="91"/>
+      <c r="C7" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="41">
+        <v>2</v>
+      </c>
+      <c r="E7" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="72" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="73" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="91"/>
+      <c r="I7" s="41">
+        <v>2</v>
+      </c>
+      <c r="J7" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="96"/>
+      <c r="L7" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+    </row>
+    <row r="8" spans="2:19" ht="27" customHeight="1">
+      <c r="B8" s="91"/>
+      <c r="C8" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="41">
+        <v>3</v>
+      </c>
+      <c r="E8" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="47"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="41">
+        <v>3</v>
+      </c>
+      <c r="J8" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="96"/>
+      <c r="L8" s="47"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+    </row>
+    <row r="9" spans="2:19" ht="27" customHeight="1" thickBot="1">
+      <c r="B9" s="99"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="61">
+        <v>4</v>
+      </c>
+      <c r="E9" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="63"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="41">
+        <v>4</v>
+      </c>
+      <c r="J9" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="97"/>
+      <c r="L9" s="49"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+    </row>
+    <row r="10" spans="2:19" ht="27" customHeight="1">
+      <c r="B10" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="39">
+        <v>1</v>
+      </c>
+      <c r="E10" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="93" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="39">
+        <v>1</v>
+      </c>
+      <c r="J10" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+    </row>
+    <row r="11" spans="2:19" ht="27" customHeight="1">
+      <c r="B11" s="91"/>
+      <c r="C11" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="41">
+        <v>2</v>
+      </c>
+      <c r="E11" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="94"/>
+      <c r="I11" s="41">
+        <v>2</v>
+      </c>
+      <c r="J11" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+    </row>
+    <row r="12" spans="2:19" ht="27" customHeight="1">
+      <c r="B12" s="91"/>
+      <c r="C12" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="41">
+        <v>3</v>
+      </c>
+      <c r="E12" s="59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="54" t="s">
+      <c r="G12" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="94"/>
+      <c r="I12" s="41">
+        <v>3</v>
+      </c>
+      <c r="J12" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="L12" s="56"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
+    </row>
+    <row r="13" spans="2:19" ht="27" customHeight="1" thickBot="1">
+      <c r="B13" s="92"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="65">
+        <v>4</v>
+      </c>
+      <c r="E13" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="51"/>
+      <c r="G13" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="80" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="40">
-        <v>1</v>
-      </c>
-      <c r="J2" s="71" t="s">
-        <v>44</v>
-      </c>
-      <c r="K2" s="72"/>
-      <c r="L2" s="73"/>
-    </row>
-    <row r="3" spans="2:19" ht="27" customHeight="1">
-      <c r="B3" s="84"/>
-      <c r="C3" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="43">
-        <v>2</v>
-      </c>
-      <c r="E3" s="89" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="86" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="87"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="43">
-        <v>2</v>
-      </c>
-      <c r="J3" s="74"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="76"/>
-    </row>
-    <row r="4" spans="2:19" ht="27" customHeight="1">
-      <c r="B4" s="84"/>
-      <c r="C4" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="43">
-        <v>3</v>
-      </c>
-      <c r="E4" s="90" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="81"/>
-      <c r="I4" s="43">
-        <v>3</v>
-      </c>
-      <c r="J4" s="74"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="76"/>
-    </row>
-    <row r="5" spans="2:19" ht="27" customHeight="1" thickBot="1">
-      <c r="B5" s="84"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="43">
+      <c r="H13" s="95"/>
+      <c r="I13" s="65">
         <v>4</v>
       </c>
-      <c r="E5" s="91" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="56"/>
-      <c r="G5" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" s="82"/>
-      <c r="I5" s="43">
-        <v>4</v>
-      </c>
-      <c r="J5" s="77"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="79"/>
-    </row>
-    <row r="6" spans="2:19" ht="27" customHeight="1">
-      <c r="B6" s="80" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="40">
-        <v>1</v>
-      </c>
-      <c r="E6" s="88" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="92" t="s">
-        <v>63</v>
-      </c>
-      <c r="H6" s="81" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="40">
-        <v>1</v>
-      </c>
-      <c r="J6" s="88" t="s">
-        <v>51</v>
-      </c>
-      <c r="K6" s="103" t="s">
-        <v>69</v>
-      </c>
-      <c r="L6" s="58" t="s">
-        <v>70</v>
-      </c>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-    </row>
-    <row r="7" spans="2:19" ht="27" customHeight="1">
-      <c r="B7" s="81"/>
-      <c r="C7" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="43">
-        <v>2</v>
-      </c>
-      <c r="E7" s="89" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="52" t="s">
-        <v>64</v>
-      </c>
-      <c r="G7" s="93"/>
-      <c r="H7" s="81"/>
-      <c r="I7" s="43">
-        <v>2</v>
-      </c>
-      <c r="J7" s="89" t="s">
-        <v>52</v>
-      </c>
-      <c r="K7" s="104"/>
-      <c r="L7" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38"/>
-    </row>
-    <row r="8" spans="2:19" ht="27" customHeight="1">
-      <c r="B8" s="81"/>
-      <c r="C8" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="43">
-        <v>3</v>
-      </c>
-      <c r="E8" s="90" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="52"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="43">
-        <v>3</v>
-      </c>
-      <c r="J8" s="90" t="s">
-        <v>53</v>
-      </c>
-      <c r="K8" s="104"/>
-      <c r="L8" s="55"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="38"/>
-    </row>
-    <row r="9" spans="2:19" ht="27" customHeight="1" thickBot="1">
-      <c r="B9" s="81"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="94">
-        <v>4</v>
-      </c>
-      <c r="E9" s="95" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="96"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="43">
-        <v>4</v>
-      </c>
-      <c r="J9" s="91" t="s">
-        <v>54</v>
-      </c>
-      <c r="K9" s="105"/>
-      <c r="L9" s="57"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="38"/>
-    </row>
-    <row r="10" spans="2:19" ht="27" customHeight="1">
-      <c r="B10" s="80" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="40">
-        <v>1</v>
-      </c>
-      <c r="E10" s="88" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="97" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="98"/>
-      <c r="H10" s="83" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="40">
-        <v>1</v>
-      </c>
-      <c r="J10" s="102" t="s">
-        <v>55</v>
-      </c>
-      <c r="K10" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="58" t="s">
+      <c r="J13" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="38"/>
-    </row>
-    <row r="11" spans="2:19" ht="27" customHeight="1">
-      <c r="B11" s="81"/>
-      <c r="C11" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="43">
-        <v>2</v>
-      </c>
-      <c r="E11" s="89" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="63" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" s="84"/>
-      <c r="I11" s="43">
-        <v>2</v>
-      </c>
-      <c r="J11" s="90" t="s">
-        <v>56</v>
-      </c>
-      <c r="K11" s="52" t="s">
-        <v>72</v>
-      </c>
-      <c r="L11" s="62" t="s">
-        <v>73</v>
-      </c>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="38"/>
-    </row>
-    <row r="12" spans="2:19" ht="27" customHeight="1">
-      <c r="B12" s="81"/>
-      <c r="C12" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="43">
-        <v>3</v>
-      </c>
-      <c r="E12" s="90" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" s="84"/>
-      <c r="I12" s="43">
-        <v>3</v>
-      </c>
-      <c r="J12" s="89" t="s">
-        <v>50</v>
-      </c>
-      <c r="K12" s="63" t="s">
-        <v>74</v>
-      </c>
-      <c r="L12" s="64"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="38"/>
-    </row>
-    <row r="13" spans="2:19" ht="27" customHeight="1" thickBot="1">
-      <c r="B13" s="82"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="100">
-        <v>4</v>
-      </c>
-      <c r="E13" s="91" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="59"/>
-      <c r="G13" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" s="85"/>
-      <c r="I13" s="100">
-        <v>4</v>
-      </c>
-      <c r="J13" s="91" t="s">
-        <v>51</v>
-      </c>
-      <c r="K13" s="61"/>
-      <c r="L13" s="101"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="38"/>
-    </row>
-    <row r="14" spans="2:19" s="38" customFormat="1"/>
-    <row r="15" spans="2:19" s="38" customFormat="1" ht="24" customHeight="1" thickBot="1"/>
-    <row r="16" spans="2:19" s="38" customFormat="1" ht="24" customHeight="1">
-      <c r="F16" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="K16" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="L16" s="50" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="6:12" s="38" customFormat="1" ht="24" customHeight="1">
-      <c r="F17" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="K17" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="L17" s="45" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="6:12" s="38" customFormat="1" ht="24" customHeight="1">
-      <c r="F18" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="K18" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="L18" s="49" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="6:12" s="38" customFormat="1" ht="24" customHeight="1">
-      <c r="F19" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="K19" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="L19" s="45" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="6:12" s="38" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="F20" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="K20" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="L20" s="51" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="6:12" s="38" customFormat="1" ht="24" customHeight="1"/>
-    <row r="22" spans="6:12" s="38" customFormat="1" ht="24" customHeight="1"/>
-    <row r="23" spans="6:12" s="38" customFormat="1" ht="24" customHeight="1"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="66"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+    </row>
+    <row r="14" spans="2:19" s="37" customFormat="1"/>
+    <row r="15" spans="2:19" s="37" customFormat="1" ht="24" customHeight="1"/>
+    <row r="16" spans="2:19" s="37" customFormat="1" ht="24" customHeight="1"/>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="8">
     <mergeCell ref="J2:L5"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="H2:H5"/>
@@ -2541,9 +2474,6 @@
     <mergeCell ref="H10:H13"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B6:B9"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="F10:G10"/>
     <mergeCell ref="K6:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/file.xlsx
+++ b/file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arkhi\Desktop\Работа\Python\botRadik\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arkhi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95FD2EE3-24E6-4325-87A6-CB5437D2A069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A1A929-CAF3-4D68-AD1B-FB9BAECBAD99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="2415" windowWidth="16905" windowHeight="13785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="73">
   <si>
     <t>Понедельник</t>
   </si>
@@ -144,15 +144,9 @@
     <t>Суббота</t>
   </si>
   <si>
-    <t>Лек. Деловые коммуникации 358</t>
-  </si>
-  <si>
     <t>Военная подготовка</t>
   </si>
   <si>
-    <t>Лек. ПОЭИС 106а</t>
-  </si>
-  <si>
     <t>11:40 13:15</t>
   </si>
   <si>
@@ -174,61 +168,85 @@
     <t>09:55 11:30</t>
   </si>
   <si>
-    <t>Лаб. Вычисл. математика 106а</t>
-  </si>
-  <si>
-    <t>Лаб. Web-програм. 206-3</t>
-  </si>
-  <si>
-    <t>Лек. Web-программирование 206-1</t>
-  </si>
-  <si>
-    <t>Лек. Основы ОНИ 206-1</t>
-  </si>
-  <si>
-    <t>Лек. Экономика ПИ 206-2</t>
-  </si>
-  <si>
-    <t>Упр. Экономика ПИ 206-2</t>
-  </si>
-  <si>
-    <t>Лаб. ПОЭИС 106а</t>
-  </si>
-  <si>
-    <t>Лек. Конструир-е ПО 206-1</t>
-  </si>
-  <si>
-    <t>Лаб. Конструир-е ПО 106</t>
-  </si>
-  <si>
-    <t>Лек. ППС 206-1</t>
-  </si>
-  <si>
-    <t>Лаб. ППС 106а</t>
-  </si>
-  <si>
-    <t>Упр. НИР 206-2</t>
-  </si>
-  <si>
-    <t>Упр. ПОЭИС 106а</t>
-  </si>
-  <si>
-    <t>Лек. Тестирование ПО 206-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Лек. Вычисл. математика 206-1 </t>
-  </si>
-  <si>
-    <t>Упр. Основы ОНИ 206-3</t>
-  </si>
-  <si>
-    <t>Упр. Деловые коммуникации 320</t>
-  </si>
-  <si>
-    <t>Лаб. Тестирование ПО 206-4</t>
-  </si>
-  <si>
-    <t>Упр. Web-програм. 206-4</t>
+    <t>Упр. НИР  +10</t>
+  </si>
+  <si>
+    <t>Лек. Защита информации 301</t>
+  </si>
+  <si>
+    <t>Лек. Методы оптимизации 337</t>
+  </si>
+  <si>
+    <t>Лек. Программ. микро-ов 405</t>
+  </si>
+  <si>
+    <t>Лек. Паралл. программ. 301</t>
+  </si>
+  <si>
+    <t>Лаб. Паралл. программ. 106а</t>
+  </si>
+  <si>
+    <t>Лаб. Защита информации 206-3</t>
+  </si>
+  <si>
+    <t>Лаб. КПО 106</t>
+  </si>
+  <si>
+    <t>Упр. Методы оптимизации 106</t>
+  </si>
+  <si>
+    <t>Лек. Паралл. программ. 132</t>
+  </si>
+  <si>
+    <t>Лек. КПО 106а</t>
+  </si>
+  <si>
+    <t>Лаб. КПО 110</t>
+  </si>
+  <si>
+    <t>Лаб. Программ. микро-ов 122</t>
+  </si>
+  <si>
+    <t>Лек. К-с прилож-я БД 404</t>
+  </si>
+  <si>
+    <t>Лек. Программ. микро-ов 333</t>
+  </si>
+  <si>
+    <t>Лаб. К-с прилож-я БД 206-3</t>
+  </si>
+  <si>
+    <t>Лек. Разработка компиляторов 130</t>
+  </si>
+  <si>
+    <t>Лек. Разработка компиляторов 403</t>
+  </si>
+  <si>
+    <t>Лаб. Разработка компиляторов 206-3</t>
+  </si>
+  <si>
+    <t>Упр. Паралл. программ. 206-3</t>
+  </si>
+  <si>
+    <t>Лек. Пром. разраб. ПО Java 132</t>
+  </si>
+  <si>
+    <t>Лаб. Методы оптимизации 106</t>
+  </si>
+  <si>
+    <t>Лек. К-с прилож-я БД 403</t>
+  </si>
+  <si>
+    <t>Лаб. Пром. разраб. ПО Java 206-4</t>
+  </si>
+  <si>
+    <t>Упр. НИР  106а</t>
+  </si>
+  <si>
+    <t>Лек. Пром. разраб. ПО Java 403</t>
+  </si>
+  <si>
+    <t>Упр. Защита информации 106</t>
   </si>
 </sst>
 </file>
@@ -300,7 +318,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -357,12 +375,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -374,7 +386,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="50">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -742,30 +754,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -777,68 +778,35 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -868,19 +836,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -933,19 +888,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -996,6 +938,32 @@
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1005,7 +973,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1118,115 +1086,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="7" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="20" fontId="9" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="7" fillId="12" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="9" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="7" fillId="12" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1247,62 +1107,149 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="11" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="9" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="9" fillId="9" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1657,16 +1604,16 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" style="34" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" style="34" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="34" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" style="34" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="19.28515625" style="34" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" style="34" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="12"/>
+    <col min="1" max="1" width="9.109375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" style="34" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" style="34" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="34" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="19.33203125" style="34" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" style="34" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
@@ -1680,12 +1627,12 @@
       <c r="H1" s="29"/>
       <c r="I1" s="29"/>
     </row>
-    <row r="2" spans="1:10" ht="13.9" customHeight="1" thickBot="1">
+    <row r="2" spans="1:10" ht="13.95" customHeight="1" thickBot="1">
       <c r="A2" s="18"/>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="76"/>
+      <c r="C2" s="40"/>
       <c r="D2" s="20" t="s">
         <v>0</v>
       </c>
@@ -1703,18 +1650,18 @@
       </c>
       <c r="I2" s="30"/>
     </row>
-    <row r="3" spans="1:10" s="13" customFormat="1" ht="20.45" customHeight="1">
+    <row r="3" spans="1:10" s="13" customFormat="1" ht="20.399999999999999" customHeight="1">
       <c r="A3" s="19"/>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="43" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="77" t="s">
+      <c r="D3" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="77" t="s">
+      <c r="E3" s="41" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="26"/>
@@ -1724,14 +1671,14 @@
       <c r="H3" s="3"/>
       <c r="I3" s="31"/>
     </row>
-    <row r="4" spans="1:10" s="13" customFormat="1" ht="20.45" customHeight="1" thickBot="1">
+    <row r="4" spans="1:10" s="13" customFormat="1" ht="20.399999999999999" customHeight="1" thickBot="1">
       <c r="A4" s="19"/>
-      <c r="B4" s="80"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5" t="s">
         <v>26</v>
@@ -1740,21 +1687,21 @@
       <c r="I4" s="31"/>
       <c r="J4" s="32"/>
     </row>
-    <row r="5" spans="1:10" s="13" customFormat="1" ht="20.45" customHeight="1">
+    <row r="5" spans="1:10" s="13" customFormat="1" ht="20.399999999999999" customHeight="1">
       <c r="A5" s="19"/>
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="43" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="77" t="s">
+      <c r="D5" s="41" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="77" t="s">
+      <c r="F5" s="41" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="23" t="s">
@@ -1764,17 +1711,17 @@
       <c r="I5" s="31"/>
       <c r="J5" s="32"/>
     </row>
-    <row r="6" spans="1:10" s="13" customFormat="1" ht="20.45" customHeight="1" thickBot="1">
+    <row r="6" spans="1:10" s="13" customFormat="1" ht="20.399999999999999" customHeight="1" thickBot="1">
       <c r="A6" s="19"/>
-      <c r="B6" s="80"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="78"/>
+      <c r="D6" s="42"/>
       <c r="E6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="78"/>
+      <c r="F6" s="42"/>
       <c r="G6" s="5" t="s">
         <v>13</v>
       </c>
@@ -1784,9 +1731,9 @@
       <c r="I6" s="31"/>
       <c r="J6" s="32"/>
     </row>
-    <row r="7" spans="1:10" s="13" customFormat="1" ht="20.45" customHeight="1">
+    <row r="7" spans="1:10" s="13" customFormat="1" ht="20.399999999999999" customHeight="1">
       <c r="A7" s="19"/>
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="43" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -1801,16 +1748,16 @@
       <c r="F7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="77" t="s">
+      <c r="G7" s="41" t="s">
         <v>5</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="31"/>
       <c r="J7" s="32"/>
     </row>
-    <row r="8" spans="1:10" s="13" customFormat="1" ht="20.45" customHeight="1" thickBot="1">
+    <row r="8" spans="1:10" s="13" customFormat="1" ht="20.399999999999999" customHeight="1" thickBot="1">
       <c r="A8" s="19"/>
-      <c r="B8" s="80"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="4" t="s">
         <v>7</v>
       </c>
@@ -1823,16 +1770,16 @@
       <c r="F8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="78"/>
+      <c r="G8" s="42"/>
       <c r="H8" s="10" t="s">
         <v>27</v>
       </c>
       <c r="I8" s="31"/>
       <c r="J8" s="32"/>
     </row>
-    <row r="9" spans="1:10" s="13" customFormat="1" ht="20.45" customHeight="1">
+    <row r="9" spans="1:10" s="13" customFormat="1" ht="20.399999999999999" customHeight="1">
       <c r="A9" s="19"/>
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="43" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -1842,7 +1789,7 @@
       <c r="E9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="77" t="s">
+      <c r="F9" s="41" t="s">
         <v>25</v>
       </c>
       <c r="G9" s="27" t="s">
@@ -1852,9 +1799,9 @@
       <c r="I9" s="31"/>
       <c r="J9" s="32"/>
     </row>
-    <row r="10" spans="1:10" s="13" customFormat="1" ht="20.45" customHeight="1" thickBot="1">
+    <row r="10" spans="1:10" s="13" customFormat="1" ht="20.399999999999999" customHeight="1" thickBot="1">
       <c r="A10" s="19"/>
-      <c r="B10" s="80"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="4" t="s">
         <v>7</v>
       </c>
@@ -1862,7 +1809,7 @@
       <c r="E10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="78"/>
+      <c r="F10" s="42"/>
       <c r="G10" s="5"/>
       <c r="H10" s="10"/>
       <c r="I10" s="31"/>
@@ -1889,7 +1836,7 @@
       </c>
       <c r="J13" s="33"/>
     </row>
-    <row r="14" spans="1:10" ht="13.5" thickBot="1">
+    <row r="14" spans="1:10" ht="13.8" thickBot="1">
       <c r="B14"/>
       <c r="J14" s="33"/>
     </row>
@@ -2084,150 +2031,167 @@
   <dimension ref="B1:S16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="36" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" style="36" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="36" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="2.5703125" style="36" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" style="36" customWidth="1"/>
-    <col min="6" max="7" width="19.5703125" style="36" customWidth="1"/>
-    <col min="8" max="8" width="2.7109375" style="36" customWidth="1"/>
-    <col min="9" max="9" width="2.5703125" style="36" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" style="36" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="19.5703125" style="36" customWidth="1"/>
-    <col min="13" max="16384" width="8.85546875" style="36"/>
+    <col min="1" max="1" width="8.88671875" style="36" customWidth="1"/>
+    <col min="2" max="2" width="2.6640625" style="36" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" style="36" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="2.5546875" style="36" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" style="36" customWidth="1"/>
+    <col min="6" max="7" width="19.5546875" style="36" customWidth="1"/>
+    <col min="8" max="8" width="2.6640625" style="36" customWidth="1"/>
+    <col min="9" max="9" width="2.5546875" style="36" customWidth="1"/>
+    <col min="10" max="10" width="5.6640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="19.5546875" style="36" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="14.25" thickBot="1"/>
+    <row r="1" spans="2:19" ht="15" thickBot="1"/>
     <row r="2" spans="2:19" ht="27" customHeight="1">
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="39">
+      <c r="D2" s="53">
         <v>1</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="83"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="53">
+        <v>1</v>
+      </c>
+      <c r="J2" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="82"/>
+      <c r="L2" s="86" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" ht="27" customHeight="1">
+      <c r="B3" s="90"/>
+      <c r="C3" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="55">
+        <v>2</v>
+      </c>
+      <c r="E3" s="69" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="88"/>
+      <c r="I3" s="55">
+        <v>2</v>
+      </c>
+      <c r="J3" s="78" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="79" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="60" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" ht="27" customHeight="1">
+      <c r="B4" s="90"/>
+      <c r="C4" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="76">
+        <v>3</v>
+      </c>
+      <c r="E4" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="60" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="88"/>
+      <c r="I4" s="76">
+        <v>3</v>
+      </c>
+      <c r="J4" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="60" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" ht="27" customHeight="1" thickBot="1">
+      <c r="B5" s="90"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="55">
+        <v>4</v>
+      </c>
+      <c r="E5" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="46" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="90" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="39">
-        <v>1</v>
-      </c>
-      <c r="J2" s="81" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" s="82"/>
-      <c r="L2" s="83"/>
-    </row>
-    <row r="3" spans="2:19" ht="27" customHeight="1">
-      <c r="B3" s="94"/>
-      <c r="C3" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="41">
-        <v>2</v>
-      </c>
-      <c r="E3" s="58" t="s">
+      <c r="F5" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="88"/>
+      <c r="I5" s="55">
+        <v>4</v>
+      </c>
+      <c r="J5" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="58" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" s="60"/>
+    </row>
+    <row r="6" spans="2:19" ht="27" customHeight="1" thickBot="1">
+      <c r="B6" s="91"/>
+      <c r="C6" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="76">
+        <v>5</v>
+      </c>
+      <c r="E6" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" s="91"/>
-      <c r="I3" s="41">
-        <v>2</v>
-      </c>
-      <c r="J3" s="84"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="86"/>
-    </row>
-    <row r="4" spans="2:19" ht="27" customHeight="1">
-      <c r="B4" s="94"/>
-      <c r="C4" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="41">
-        <v>3</v>
-      </c>
-      <c r="E4" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="91"/>
-      <c r="I4" s="41">
-        <v>3</v>
-      </c>
-      <c r="J4" s="84"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="86"/>
-    </row>
-    <row r="5" spans="2:19" ht="27" customHeight="1" thickBot="1">
-      <c r="B5" s="94"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="41">
-        <v>4</v>
-      </c>
-      <c r="E5" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="48"/>
-      <c r="G5" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="92"/>
-      <c r="I5" s="41">
-        <v>4</v>
-      </c>
-      <c r="J5" s="87"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="89"/>
-    </row>
-    <row r="6" spans="2:19" ht="27" customHeight="1">
-      <c r="B6" s="98" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="70"/>
-      <c r="D6" s="39">
-        <v>1</v>
-      </c>
-      <c r="E6" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="H6" s="91"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="71" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" s="96" t="s">
-        <v>59</v>
-      </c>
-      <c r="L6" s="74" t="s">
-        <v>60</v>
-      </c>
+      <c r="F6" s="61"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="76">
+        <v>5</v>
+      </c>
+      <c r="J6" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" s="62"/>
       <c r="O6" s="37"/>
       <c r="P6" s="37"/>
       <c r="Q6" s="37"/>
@@ -2235,33 +2199,31 @@
       <c r="S6" s="37"/>
     </row>
     <row r="7" spans="2:19" ht="27" customHeight="1">
-      <c r="B7" s="91"/>
-      <c r="C7" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="41">
-        <v>2</v>
-      </c>
-      <c r="E7" s="71" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" s="72" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="73" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" s="91"/>
-      <c r="I7" s="41">
-        <v>2</v>
-      </c>
-      <c r="J7" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="K7" s="96"/>
-      <c r="L7" s="47" t="s">
-        <v>61</v>
-      </c>
+      <c r="B7" s="51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="77"/>
+      <c r="D7" s="53">
+        <v>1</v>
+      </c>
+      <c r="E7" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="83"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="53">
+        <v>1</v>
+      </c>
+      <c r="J7" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="L7" s="63"/>
       <c r="O7" s="37"/>
       <c r="P7" s="37"/>
       <c r="Q7" s="37"/>
@@ -2269,94 +2231,100 @@
       <c r="S7" s="37"/>
     </row>
     <row r="8" spans="2:19" ht="27" customHeight="1">
-      <c r="B8" s="91"/>
-      <c r="C8" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="41">
-        <v>3</v>
-      </c>
-      <c r="E8" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="47"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="41">
-        <v>3</v>
-      </c>
-      <c r="J8" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="K8" s="96"/>
-      <c r="L8" s="47"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="55">
+        <v>2</v>
+      </c>
+      <c r="E8" s="78" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="85" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="88"/>
+      <c r="I8" s="55">
+        <v>2</v>
+      </c>
+      <c r="J8" s="78" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" s="81" t="s">
+        <v>62</v>
+      </c>
       <c r="O8" s="37"/>
       <c r="P8" s="37"/>
       <c r="Q8" s="37"/>
       <c r="R8" s="37"/>
       <c r="S8" s="37"/>
     </row>
-    <row r="9" spans="2:19" ht="27" customHeight="1" thickBot="1">
-      <c r="B9" s="99"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="61">
-        <v>4</v>
-      </c>
-      <c r="E9" s="62" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="63"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="41">
-        <v>4</v>
-      </c>
-      <c r="J9" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="K9" s="97"/>
-      <c r="L9" s="49"/>
+    <row r="9" spans="2:19" ht="27" customHeight="1">
+      <c r="B9" s="88"/>
+      <c r="C9" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="76">
+        <v>3</v>
+      </c>
+      <c r="E9" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="79" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="80" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="88"/>
+      <c r="I9" s="76">
+        <v>3</v>
+      </c>
+      <c r="J9" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="L9" s="60" t="s">
+        <v>66</v>
+      </c>
       <c r="O9" s="37"/>
       <c r="P9" s="37"/>
       <c r="Q9" s="37"/>
       <c r="R9" s="37"/>
       <c r="S9" s="37"/>
     </row>
-    <row r="10" spans="2:19" ht="27" customHeight="1">
-      <c r="B10" s="91" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="39">
-        <v>1</v>
-      </c>
-      <c r="E10" s="57" t="s">
+    <row r="10" spans="2:19" ht="27" customHeight="1" thickBot="1">
+      <c r="B10" s="88"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="55">
+        <v>4</v>
+      </c>
+      <c r="E10" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="68" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="68" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="93" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="39">
-        <v>1</v>
-      </c>
-      <c r="J10" s="67" t="s">
-        <v>46</v>
-      </c>
-      <c r="K10" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="50" t="s">
-        <v>38</v>
+      <c r="F10" s="58"/>
+      <c r="G10" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="88"/>
+      <c r="I10" s="55">
+        <v>4</v>
+      </c>
+      <c r="J10" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="58"/>
+      <c r="L10" s="60" t="s">
+        <v>68</v>
       </c>
       <c r="O10" s="37"/>
       <c r="P10" s="37"/>
@@ -2364,35 +2332,29 @@
       <c r="R10" s="37"/>
       <c r="S10" s="37"/>
     </row>
-    <row r="11" spans="2:19" ht="27" customHeight="1">
-      <c r="B11" s="91"/>
-      <c r="C11" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="41">
-        <v>2</v>
-      </c>
-      <c r="E11" s="58" t="s">
+    <row r="11" spans="2:19" ht="27" customHeight="1" thickBot="1">
+      <c r="B11" s="88"/>
+      <c r="C11" s="52" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="76">
+        <v>5</v>
+      </c>
+      <c r="E11" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" s="94"/>
-      <c r="I11" s="41">
-        <v>2</v>
-      </c>
-      <c r="J11" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="K11" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="L11" s="54" t="s">
-        <v>63</v>
+      <c r="F11" s="71"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="73">
+        <v>5</v>
+      </c>
+      <c r="J11" s="70" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="75"/>
+      <c r="L11" s="62" t="s">
+        <v>69</v>
       </c>
       <c r="O11" s="37"/>
       <c r="P11" s="37"/>
@@ -2401,80 +2363,95 @@
       <c r="S11" s="37"/>
     </row>
     <row r="12" spans="2:19" ht="27" customHeight="1">
-      <c r="B12" s="91"/>
-      <c r="C12" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="41">
-        <v>3</v>
-      </c>
-      <c r="E12" s="59" t="s">
+      <c r="B12" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="54" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="89" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="76">
+        <v>1</v>
+      </c>
+      <c r="J12" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="94"/>
-      <c r="I12" s="41">
-        <v>3</v>
-      </c>
-      <c r="J12" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="K12" s="55" t="s">
-        <v>64</v>
-      </c>
-      <c r="L12" s="56"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="87" t="s">
+        <v>70</v>
+      </c>
       <c r="O12" s="37"/>
       <c r="P12" s="37"/>
       <c r="Q12" s="37"/>
       <c r="R12" s="37"/>
       <c r="S12" s="37"/>
     </row>
-    <row r="13" spans="2:19" ht="27" customHeight="1" thickBot="1">
-      <c r="B13" s="92"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="65">
-        <v>4</v>
-      </c>
-      <c r="E13" s="60" t="s">
+    <row r="13" spans="2:19" ht="27" customHeight="1">
+      <c r="B13" s="88"/>
+      <c r="C13" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="55">
+        <v>2</v>
+      </c>
+      <c r="J13" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="51"/>
-      <c r="G13" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" s="95"/>
-      <c r="I13" s="65">
-        <v>4</v>
-      </c>
-      <c r="J13" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="K13" s="53"/>
-      <c r="L13" s="66"/>
+      <c r="K13" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="38" t="s">
+        <v>70</v>
+      </c>
       <c r="O13" s="37"/>
       <c r="P13" s="37"/>
       <c r="Q13" s="37"/>
       <c r="R13" s="37"/>
       <c r="S13" s="37"/>
     </row>
-    <row r="14" spans="2:19" s="37" customFormat="1"/>
+    <row r="14" spans="2:19" s="37" customFormat="1" ht="29.4" thickBot="1">
+      <c r="B14" s="92"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="73">
+        <v>3</v>
+      </c>
+      <c r="J14" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="L14" s="74"/>
+    </row>
     <row r="15" spans="2:19" s="37" customFormat="1" ht="24" customHeight="1"/>
     <row r="16" spans="2:19" s="37" customFormat="1" ht="24" customHeight="1"/>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="J2:L5"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="K6:K9"/>
+  <mergeCells count="7">
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="D12:G14"/>
+    <mergeCell ref="H2:H6"/>
+    <mergeCell ref="H7:H11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/file.xlsx
+++ b/file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arkhi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A1A929-CAF3-4D68-AD1B-FB9BAECBAD99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F27EB5C-E500-43AC-9BE9-491EC6F7280A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14268" yWindow="3192" windowWidth="17280" windowHeight="9072" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -168,9 +168,6 @@
     <t>09:55 11:30</t>
   </si>
   <si>
-    <t>Упр. НИР  +10</t>
-  </si>
-  <si>
     <t>Лек. Защита информации 301</t>
   </si>
   <si>
@@ -243,10 +240,13 @@
     <t>Упр. НИР  106а</t>
   </si>
   <si>
-    <t>Лек. Пром. разраб. ПО Java 403</t>
-  </si>
-  <si>
-    <t>Упр. Защита информации 106</t>
+    <t>Лек. Пром. разраб. ПО Java 106а</t>
+  </si>
+  <si>
+    <t>Упр. НИР  206-2</t>
+  </si>
+  <si>
+    <t>Упр. Защита информации 301</t>
   </si>
 </sst>
 </file>
@@ -973,7 +973,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1089,6 +1089,114 @@
     <xf numFmtId="20" fontId="9" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="11" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="9" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="9" fillId="9" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1107,149 +1215,50 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="7" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="7" fillId="11" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="9" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="9" fillId="9" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1629,10 +1638,10 @@
     </row>
     <row r="2" spans="1:10" ht="13.95" customHeight="1" thickBot="1">
       <c r="A2" s="18"/>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="40"/>
+      <c r="C2" s="76"/>
       <c r="D2" s="20" t="s">
         <v>0</v>
       </c>
@@ -1652,16 +1661,16 @@
     </row>
     <row r="3" spans="1:10" s="13" customFormat="1" ht="20.399999999999999" customHeight="1">
       <c r="A3" s="19"/>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="79" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="41" t="s">
+      <c r="E3" s="77" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="26"/>
@@ -1673,12 +1682,12 @@
     </row>
     <row r="4" spans="1:10" s="13" customFormat="1" ht="20.399999999999999" customHeight="1" thickBot="1">
       <c r="A4" s="19"/>
-      <c r="B4" s="44"/>
+      <c r="B4" s="80"/>
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5" t="s">
         <v>26</v>
@@ -1689,19 +1698,19 @@
     </row>
     <row r="5" spans="1:10" s="13" customFormat="1" ht="20.399999999999999" customHeight="1">
       <c r="A5" s="19"/>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="79" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="77" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="77" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="23" t="s">
@@ -1713,15 +1722,15 @@
     </row>
     <row r="6" spans="1:10" s="13" customFormat="1" ht="20.399999999999999" customHeight="1" thickBot="1">
       <c r="A6" s="19"/>
-      <c r="B6" s="44"/>
+      <c r="B6" s="80"/>
       <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="42"/>
+      <c r="D6" s="78"/>
       <c r="E6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="42"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="5" t="s">
         <v>13</v>
       </c>
@@ -1733,7 +1742,7 @@
     </row>
     <row r="7" spans="1:10" s="13" customFormat="1" ht="20.399999999999999" customHeight="1">
       <c r="A7" s="19"/>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="79" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -1748,7 +1757,7 @@
       <c r="F7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="41" t="s">
+      <c r="G7" s="77" t="s">
         <v>5</v>
       </c>
       <c r="H7" s="9"/>
@@ -1757,7 +1766,7 @@
     </row>
     <row r="8" spans="1:10" s="13" customFormat="1" ht="20.399999999999999" customHeight="1" thickBot="1">
       <c r="A8" s="19"/>
-      <c r="B8" s="44"/>
+      <c r="B8" s="80"/>
       <c r="C8" s="4" t="s">
         <v>7</v>
       </c>
@@ -1770,7 +1779,7 @@
       <c r="F8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="42"/>
+      <c r="G8" s="78"/>
       <c r="H8" s="10" t="s">
         <v>27</v>
       </c>
@@ -1779,7 +1788,7 @@
     </row>
     <row r="9" spans="1:10" s="13" customFormat="1" ht="20.399999999999999" customHeight="1">
       <c r="A9" s="19"/>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="79" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -1789,7 +1798,7 @@
       <c r="E9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="77" t="s">
         <v>25</v>
       </c>
       <c r="G9" s="27" t="s">
@@ -1801,7 +1810,7 @@
     </row>
     <row r="10" spans="1:10" s="13" customFormat="1" ht="20.399999999999999" customHeight="1" thickBot="1">
       <c r="A10" s="19"/>
-      <c r="B10" s="44"/>
+      <c r="B10" s="80"/>
       <c r="C10" s="4" t="s">
         <v>7</v>
       </c>
@@ -1809,7 +1818,7 @@
       <c r="E10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="42"/>
+      <c r="F10" s="78"/>
       <c r="G10" s="5"/>
       <c r="H10" s="10"/>
       <c r="I10" s="31"/>
@@ -2030,8 +2039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7BD5C26-A9FD-4630-947E-E22400BE4D9A}">
   <dimension ref="B1:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -2051,147 +2060,149 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15" thickBot="1"/>
     <row r="2" spans="2:19" ht="27" customHeight="1">
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="53">
+      <c r="D2" s="40">
         <v>1</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="83"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="51" t="s">
+      <c r="F2" s="94" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="71"/>
+      <c r="H2" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="53">
+      <c r="I2" s="40">
         <v>1</v>
       </c>
-      <c r="J2" s="67" t="s">
+      <c r="J2" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="82"/>
-      <c r="L2" s="86" t="s">
+      <c r="K2" s="69"/>
+      <c r="L2" s="73" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="2:19" ht="27" customHeight="1">
+      <c r="B3" s="82"/>
+      <c r="C3" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="42">
+        <v>2</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="45" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="2:19" ht="27" customHeight="1">
-      <c r="B3" s="90"/>
-      <c r="C3" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="55">
+      <c r="G3" s="72" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="85"/>
+      <c r="I3" s="42">
         <v>2</v>
       </c>
-      <c r="E3" s="69" t="s">
+      <c r="J3" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="85" t="s">
+      <c r="K3" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="88"/>
-      <c r="I3" s="55">
-        <v>2</v>
-      </c>
-      <c r="J3" s="78" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="79" t="s">
+      <c r="L3" s="93" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" ht="27" customHeight="1">
+      <c r="B4" s="82"/>
+      <c r="C4" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="63">
+        <v>3</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="L3" s="60" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="2:19" ht="27" customHeight="1">
-      <c r="B4" s="90"/>
-      <c r="C4" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="76">
+      <c r="G4" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="85"/>
+      <c r="I4" s="63">
         <v>3</v>
       </c>
-      <c r="E4" s="68" t="s">
+      <c r="J4" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="66" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="60" t="s">
+      <c r="K4" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="88"/>
-      <c r="I4" s="76">
-        <v>3</v>
-      </c>
-      <c r="J4" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="58" t="s">
+      <c r="L4" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="L4" s="60" t="s">
+    </row>
+    <row r="5" spans="2:19" ht="27" customHeight="1" thickBot="1">
+      <c r="B5" s="82"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="42">
+        <v>4</v>
+      </c>
+      <c r="E5" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="45" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="5" spans="2:19" ht="27" customHeight="1" thickBot="1">
-      <c r="B5" s="90"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="55">
+      <c r="G5" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="85"/>
+      <c r="I5" s="42">
         <v>4</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="J5" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="60" t="s">
+      <c r="K5" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="88"/>
-      <c r="I5" s="55">
-        <v>4</v>
-      </c>
-      <c r="J5" s="69" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" s="58" t="s">
+      <c r="L5" s="47"/>
+    </row>
+    <row r="6" spans="2:19" ht="27" customHeight="1" thickBot="1">
+      <c r="B6" s="83"/>
+      <c r="C6" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="63">
+        <v>5</v>
+      </c>
+      <c r="E6" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="48"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="86"/>
+      <c r="I6" s="63">
+        <v>5</v>
+      </c>
+      <c r="J6" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="L5" s="60"/>
-    </row>
-    <row r="6" spans="2:19" ht="27" customHeight="1" thickBot="1">
-      <c r="B6" s="91"/>
-      <c r="C6" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="76">
-        <v>5</v>
-      </c>
-      <c r="E6" s="69" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="61"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="76">
-        <v>5</v>
-      </c>
-      <c r="J6" s="70" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="75" t="s">
-        <v>57</v>
-      </c>
-      <c r="L6" s="62"/>
+      <c r="L6" s="49"/>
       <c r="O6" s="37"/>
       <c r="P6" s="37"/>
       <c r="Q6" s="37"/>
@@ -2199,31 +2210,31 @@
       <c r="S6" s="37"/>
     </row>
     <row r="7" spans="2:19" ht="27" customHeight="1">
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="53">
+      <c r="C7" s="64"/>
+      <c r="D7" s="40">
         <v>1</v>
       </c>
-      <c r="E7" s="67" t="s">
+      <c r="E7" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="83"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="88" t="s">
+      <c r="F7" s="70"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="53">
+      <c r="I7" s="40">
         <v>1</v>
       </c>
-      <c r="J7" s="67" t="s">
+      <c r="J7" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="59" t="s">
-        <v>58</v>
-      </c>
-      <c r="L7" s="63"/>
+      <c r="K7" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="L7" s="50"/>
       <c r="O7" s="37"/>
       <c r="P7" s="37"/>
       <c r="Q7" s="37"/>
@@ -2231,34 +2242,34 @@
       <c r="S7" s="37"/>
     </row>
     <row r="8" spans="2:19" ht="27" customHeight="1">
-      <c r="B8" s="88"/>
-      <c r="C8" s="54" t="s">
+      <c r="B8" s="85"/>
+      <c r="C8" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="55">
+      <c r="D8" s="42">
         <v>2</v>
       </c>
-      <c r="E8" s="78" t="s">
+      <c r="E8" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="58" t="s">
+      <c r="F8" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="85" t="s">
+      <c r="H8" s="85"/>
+      <c r="I8" s="42">
+        <v>2</v>
+      </c>
+      <c r="J8" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="H8" s="88"/>
-      <c r="I8" s="55">
-        <v>2</v>
-      </c>
-      <c r="J8" s="78" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" s="79" t="s">
+      <c r="L8" s="68" t="s">
         <v>61</v>
-      </c>
-      <c r="L8" s="81" t="s">
-        <v>62</v>
       </c>
       <c r="O8" s="37"/>
       <c r="P8" s="37"/>
@@ -2267,34 +2278,34 @@
       <c r="S8" s="37"/>
     </row>
     <row r="9" spans="2:19" ht="27" customHeight="1">
-      <c r="B9" s="88"/>
-      <c r="C9" s="56" t="s">
+      <c r="B9" s="85"/>
+      <c r="C9" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="76">
+      <c r="D9" s="63">
         <v>3</v>
       </c>
-      <c r="E9" s="68" t="s">
+      <c r="E9" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="79" t="s">
+      <c r="F9" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="80" t="s">
+      <c r="H9" s="85"/>
+      <c r="I9" s="63">
+        <v>3</v>
+      </c>
+      <c r="J9" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="K9" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="88"/>
-      <c r="I9" s="76">
-        <v>3</v>
-      </c>
-      <c r="J9" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="K9" s="58" t="s">
+      <c r="L9" s="47" t="s">
         <v>65</v>
-      </c>
-      <c r="L9" s="60" t="s">
-        <v>66</v>
       </c>
       <c r="O9" s="37"/>
       <c r="P9" s="37"/>
@@ -2303,28 +2314,30 @@
       <c r="S9" s="37"/>
     </row>
     <row r="10" spans="2:19" ht="27" customHeight="1" thickBot="1">
-      <c r="B10" s="88"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="55">
+      <c r="B10" s="85"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="42">
         <v>4</v>
       </c>
-      <c r="E10" s="69" t="s">
+      <c r="E10" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="58"/>
-      <c r="G10" s="60" t="s">
+      <c r="F10" s="45"/>
+      <c r="G10" s="47" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="85"/>
+      <c r="I10" s="42">
+        <v>4</v>
+      </c>
+      <c r="J10" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="95" t="s">
+        <v>72</v>
+      </c>
+      <c r="L10" s="47" t="s">
         <v>67</v>
-      </c>
-      <c r="H10" s="88"/>
-      <c r="I10" s="55">
-        <v>4</v>
-      </c>
-      <c r="J10" s="69" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" s="58"/>
-      <c r="L10" s="60" t="s">
-        <v>68</v>
       </c>
       <c r="O10" s="37"/>
       <c r="P10" s="37"/>
@@ -2333,28 +2346,28 @@
       <c r="S10" s="37"/>
     </row>
     <row r="11" spans="2:19" ht="27" customHeight="1" thickBot="1">
-      <c r="B11" s="88"/>
-      <c r="C11" s="52" t="s">
+      <c r="B11" s="85"/>
+      <c r="C11" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="76">
+      <c r="D11" s="63">
         <v>5</v>
       </c>
-      <c r="E11" s="70" t="s">
+      <c r="E11" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="71"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="92"/>
-      <c r="I11" s="73">
+      <c r="F11" s="58"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="86"/>
+      <c r="I11" s="60">
         <v>5</v>
       </c>
-      <c r="J11" s="70" t="s">
+      <c r="J11" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="K11" s="75"/>
-      <c r="L11" s="62" t="s">
-        <v>69</v>
+      <c r="K11" s="62"/>
+      <c r="L11" s="49" t="s">
+        <v>68</v>
       </c>
       <c r="O11" s="37"/>
       <c r="P11" s="37"/>
@@ -2363,30 +2376,30 @@
       <c r="S11" s="37"/>
     </row>
     <row r="12" spans="2:19" ht="27" customHeight="1">
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="45" t="s">
+      <c r="D12" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="89" t="s">
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="I12" s="76">
+      <c r="I12" s="63">
         <v>1</v>
       </c>
-      <c r="J12" s="69" t="s">
+      <c r="J12" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="K12" s="58"/>
-      <c r="L12" s="87" t="s">
-        <v>70</v>
+      <c r="K12" s="45"/>
+      <c r="L12" s="74" t="s">
+        <v>69</v>
       </c>
       <c r="O12" s="37"/>
       <c r="P12" s="37"/>
@@ -2395,26 +2408,24 @@
       <c r="S12" s="37"/>
     </row>
     <row r="13" spans="2:19" ht="27" customHeight="1">
-      <c r="B13" s="88"/>
-      <c r="C13" s="56" t="s">
+      <c r="B13" s="85"/>
+      <c r="C13" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="55">
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="42">
         <v>2</v>
       </c>
-      <c r="J13" s="68" t="s">
+      <c r="J13" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="K13" s="66" t="s">
-        <v>71</v>
-      </c>
+      <c r="K13" s="53"/>
       <c r="L13" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O13" s="37"/>
       <c r="P13" s="37"/>
@@ -2423,23 +2434,21 @@
       <c r="S13" s="37"/>
     </row>
     <row r="14" spans="2:19" s="37" customFormat="1" ht="29.4" thickBot="1">
-      <c r="B14" s="92"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="73">
+      <c r="B14" s="86"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="60">
         <v>3</v>
       </c>
-      <c r="J14" s="70" t="s">
+      <c r="J14" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="K14" s="65" t="s">
-        <v>72</v>
-      </c>
-      <c r="L14" s="74"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="61"/>
     </row>
     <row r="15" spans="2:19" s="37" customFormat="1" ht="24" customHeight="1"/>
     <row r="16" spans="2:19" s="37" customFormat="1" ht="24" customHeight="1"/>

--- a/file.xlsx
+++ b/file.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arkhi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arkhi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F27EB5C-E500-43AC-9BE9-491EC6F7280A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2641B4C3-CEEE-48BB-B806-AE7ED3ABCC46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14268" yWindow="3192" windowWidth="17280" windowHeight="9072" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9072" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -213,9 +213,6 @@
     <t>Лаб. К-с прилож-я БД 206-3</t>
   </si>
   <si>
-    <t>Лек. Разработка компиляторов 130</t>
-  </si>
-  <si>
     <t>Лек. Разработка компиляторов 403</t>
   </si>
   <si>
@@ -247,6 +244,9 @@
   </si>
   <si>
     <t>Упр. Защита информации 301</t>
+  </si>
+  <si>
+    <t>Лек. Разработка компиляторов 346</t>
   </si>
 </sst>
 </file>
@@ -1197,6 +1197,15 @@
     <xf numFmtId="20" fontId="9" fillId="9" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1249,15 +1258,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1638,10 +1638,10 @@
     </row>
     <row r="2" spans="1:10" ht="13.95" customHeight="1" thickBot="1">
       <c r="A2" s="18"/>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="76"/>
+      <c r="C2" s="79"/>
       <c r="D2" s="20" t="s">
         <v>0</v>
       </c>
@@ -1661,16 +1661,16 @@
     </row>
     <row r="3" spans="1:10" s="13" customFormat="1" ht="20.399999999999999" customHeight="1">
       <c r="A3" s="19"/>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="82" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="77" t="s">
+      <c r="D3" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="77" t="s">
+      <c r="E3" s="80" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="26"/>
@@ -1682,12 +1682,12 @@
     </row>
     <row r="4" spans="1:10" s="13" customFormat="1" ht="20.399999999999999" customHeight="1" thickBot="1">
       <c r="A4" s="19"/>
-      <c r="B4" s="80"/>
+      <c r="B4" s="83"/>
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5" t="s">
         <v>26</v>
@@ -1698,19 +1698,19 @@
     </row>
     <row r="5" spans="1:10" s="13" customFormat="1" ht="20.399999999999999" customHeight="1">
       <c r="A5" s="19"/>
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="82" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="77" t="s">
+      <c r="D5" s="80" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="77" t="s">
+      <c r="F5" s="80" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="23" t="s">
@@ -1722,15 +1722,15 @@
     </row>
     <row r="6" spans="1:10" s="13" customFormat="1" ht="20.399999999999999" customHeight="1" thickBot="1">
       <c r="A6" s="19"/>
-      <c r="B6" s="80"/>
+      <c r="B6" s="83"/>
       <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="78"/>
+      <c r="D6" s="81"/>
       <c r="E6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="78"/>
+      <c r="F6" s="81"/>
       <c r="G6" s="5" t="s">
         <v>13</v>
       </c>
@@ -1742,7 +1742,7 @@
     </row>
     <row r="7" spans="1:10" s="13" customFormat="1" ht="20.399999999999999" customHeight="1">
       <c r="A7" s="19"/>
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="82" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -1757,7 +1757,7 @@
       <c r="F7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="77" t="s">
+      <c r="G7" s="80" t="s">
         <v>5</v>
       </c>
       <c r="H7" s="9"/>
@@ -1766,7 +1766,7 @@
     </row>
     <row r="8" spans="1:10" s="13" customFormat="1" ht="20.399999999999999" customHeight="1" thickBot="1">
       <c r="A8" s="19"/>
-      <c r="B8" s="80"/>
+      <c r="B8" s="83"/>
       <c r="C8" s="4" t="s">
         <v>7</v>
       </c>
@@ -1779,7 +1779,7 @@
       <c r="F8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="78"/>
+      <c r="G8" s="81"/>
       <c r="H8" s="10" t="s">
         <v>27</v>
       </c>
@@ -1788,7 +1788,7 @@
     </row>
     <row r="9" spans="1:10" s="13" customFormat="1" ht="20.399999999999999" customHeight="1">
       <c r="A9" s="19"/>
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="82" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -1798,7 +1798,7 @@
       <c r="E9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="77" t="s">
+      <c r="F9" s="80" t="s">
         <v>25</v>
       </c>
       <c r="G9" s="27" t="s">
@@ -1810,7 +1810,7 @@
     </row>
     <row r="10" spans="1:10" s="13" customFormat="1" ht="20.399999999999999" customHeight="1" thickBot="1">
       <c r="A10" s="19"/>
-      <c r="B10" s="80"/>
+      <c r="B10" s="83"/>
       <c r="C10" s="4" t="s">
         <v>7</v>
       </c>
@@ -1818,7 +1818,7 @@
       <c r="E10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="78"/>
+      <c r="F10" s="81"/>
       <c r="G10" s="5"/>
       <c r="H10" s="10"/>
       <c r="I10" s="31"/>
@@ -2039,8 +2039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7BD5C26-A9FD-4630-947E-E22400BE4D9A}">
   <dimension ref="B1:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -2060,7 +2060,7 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15" thickBot="1"/>
     <row r="2" spans="2:19" ht="27" customHeight="1">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="84" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="39" t="s">
@@ -2072,11 +2072,11 @@
       <c r="E2" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="94" t="s">
-        <v>70</v>
+      <c r="F2" s="76" t="s">
+        <v>69</v>
       </c>
       <c r="G2" s="71"/>
-      <c r="H2" s="84" t="s">
+      <c r="H2" s="87" t="s">
         <v>3</v>
       </c>
       <c r="I2" s="40">
@@ -2087,11 +2087,11 @@
       </c>
       <c r="K2" s="69"/>
       <c r="L2" s="73" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="2:19" ht="27" customHeight="1">
-      <c r="B3" s="82"/>
+      <c r="B3" s="85"/>
       <c r="C3" s="41" t="s">
         <v>32</v>
       </c>
@@ -2107,7 +2107,7 @@
       <c r="G3" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="85"/>
+      <c r="H3" s="88"/>
       <c r="I3" s="42">
         <v>2</v>
       </c>
@@ -2117,12 +2117,12 @@
       <c r="K3" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="L3" s="93" t="s">
-        <v>71</v>
+      <c r="L3" s="75" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="2:19" ht="27" customHeight="1">
-      <c r="B4" s="82"/>
+      <c r="B4" s="85"/>
       <c r="C4" s="43" t="s">
         <v>33</v>
       </c>
@@ -2138,7 +2138,7 @@
       <c r="G4" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="85"/>
+      <c r="H4" s="88"/>
       <c r="I4" s="63">
         <v>3</v>
       </c>
@@ -2153,7 +2153,7 @@
       </c>
     </row>
     <row r="5" spans="2:19" ht="27" customHeight="1" thickBot="1">
-      <c r="B5" s="82"/>
+      <c r="B5" s="85"/>
       <c r="C5" s="44"/>
       <c r="D5" s="42">
         <v>4</v>
@@ -2167,7 +2167,7 @@
       <c r="G5" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="85"/>
+      <c r="H5" s="88"/>
       <c r="I5" s="42">
         <v>4</v>
       </c>
@@ -2180,7 +2180,7 @@
       <c r="L5" s="47"/>
     </row>
     <row r="6" spans="2:19" ht="27" customHeight="1" thickBot="1">
-      <c r="B6" s="83"/>
+      <c r="B6" s="86"/>
       <c r="C6" s="39" t="s">
         <v>31</v>
       </c>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="F6" s="48"/>
       <c r="G6" s="49"/>
-      <c r="H6" s="86"/>
+      <c r="H6" s="89"/>
       <c r="I6" s="63">
         <v>5</v>
       </c>
@@ -2210,7 +2210,7 @@
       <c r="S6" s="37"/>
     </row>
     <row r="7" spans="2:19" ht="27" customHeight="1">
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="87" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="64"/>
@@ -2222,7 +2222,7 @@
       </c>
       <c r="F7" s="70"/>
       <c r="G7" s="71"/>
-      <c r="H7" s="85" t="s">
+      <c r="H7" s="88" t="s">
         <v>4</v>
       </c>
       <c r="I7" s="40">
@@ -2242,7 +2242,7 @@
       <c r="S7" s="37"/>
     </row>
     <row r="8" spans="2:19" ht="27" customHeight="1">
-      <c r="B8" s="85"/>
+      <c r="B8" s="88"/>
       <c r="C8" s="41" t="s">
         <v>32</v>
       </c>
@@ -2258,7 +2258,7 @@
       <c r="G8" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="H8" s="85"/>
+      <c r="H8" s="88"/>
       <c r="I8" s="42">
         <v>2</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>60</v>
       </c>
       <c r="L8" s="68" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="O8" s="37"/>
       <c r="P8" s="37"/>
@@ -2278,7 +2278,7 @@
       <c r="S8" s="37"/>
     </row>
     <row r="9" spans="2:19" ht="27" customHeight="1">
-      <c r="B9" s="85"/>
+      <c r="B9" s="88"/>
       <c r="C9" s="43" t="s">
         <v>33</v>
       </c>
@@ -2289,12 +2289,12 @@
         <v>41</v>
       </c>
       <c r="F9" s="66" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" s="85"/>
+      <c r="H9" s="88"/>
       <c r="I9" s="63">
         <v>3</v>
       </c>
@@ -2302,10 +2302,10 @@
         <v>41</v>
       </c>
       <c r="K9" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="L9" s="47" t="s">
         <v>64</v>
-      </c>
-      <c r="L9" s="47" t="s">
-        <v>65</v>
       </c>
       <c r="O9" s="37"/>
       <c r="P9" s="37"/>
@@ -2314,7 +2314,7 @@
       <c r="S9" s="37"/>
     </row>
     <row r="10" spans="2:19" ht="27" customHeight="1" thickBot="1">
-      <c r="B10" s="85"/>
+      <c r="B10" s="88"/>
       <c r="C10" s="44"/>
       <c r="D10" s="42">
         <v>4</v>
@@ -2324,20 +2324,20 @@
       </c>
       <c r="F10" s="45"/>
       <c r="G10" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="H10" s="85"/>
+        <v>65</v>
+      </c>
+      <c r="H10" s="88"/>
       <c r="I10" s="42">
         <v>4</v>
       </c>
       <c r="J10" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="K10" s="95" t="s">
-        <v>72</v>
+      <c r="K10" s="77" t="s">
+        <v>71</v>
       </c>
       <c r="L10" s="47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O10" s="37"/>
       <c r="P10" s="37"/>
@@ -2346,7 +2346,7 @@
       <c r="S10" s="37"/>
     </row>
     <row r="11" spans="2:19" ht="27" customHeight="1" thickBot="1">
-      <c r="B11" s="85"/>
+      <c r="B11" s="88"/>
       <c r="C11" s="39" t="s">
         <v>31</v>
       </c>
@@ -2358,7 +2358,7 @@
       </c>
       <c r="F11" s="58"/>
       <c r="G11" s="51"/>
-      <c r="H11" s="86"/>
+      <c r="H11" s="89"/>
       <c r="I11" s="60">
         <v>5</v>
       </c>
@@ -2367,7 +2367,7 @@
       </c>
       <c r="K11" s="62"/>
       <c r="L11" s="49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O11" s="37"/>
       <c r="P11" s="37"/>
@@ -2376,19 +2376,19 @@
       <c r="S11" s="37"/>
     </row>
     <row r="12" spans="2:19" ht="27" customHeight="1">
-      <c r="B12" s="84" t="s">
+      <c r="B12" s="87" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="87" t="s">
+      <c r="D12" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="81" t="s">
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="84" t="s">
         <v>37</v>
       </c>
       <c r="I12" s="63">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="K12" s="45"/>
       <c r="L12" s="74" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O12" s="37"/>
       <c r="P12" s="37"/>
@@ -2408,15 +2408,15 @@
       <c r="S12" s="37"/>
     </row>
     <row r="13" spans="2:19" ht="27" customHeight="1">
-      <c r="B13" s="85"/>
+      <c r="B13" s="88"/>
       <c r="C13" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="82"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="85"/>
       <c r="I13" s="42">
         <v>2</v>
       </c>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="K13" s="53"/>
       <c r="L13" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O13" s="37"/>
       <c r="P13" s="37"/>
@@ -2434,13 +2434,13 @@
       <c r="S13" s="37"/>
     </row>
     <row r="14" spans="2:19" s="37" customFormat="1" ht="29.4" thickBot="1">
-      <c r="B14" s="86"/>
+      <c r="B14" s="89"/>
       <c r="C14" s="59"/>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="92"/>
-      <c r="H14" s="83"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="86"/>
       <c r="I14" s="60">
         <v>3</v>
       </c>

--- a/file.xlsx
+++ b/file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arkhi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arkhi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2641B4C3-CEEE-48BB-B806-AE7ED3ABCC46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{539DFB05-E326-47F7-AD59-5215BA559CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9072" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="2415" windowWidth="16905" windowHeight="13785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -253,7 +253,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -315,6 +315,12 @@
     <font>
       <sz val="12"/>
       <name val="Montserrat Medium"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -970,10 +976,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1197,15 +1204,6 @@
     <xf numFmtId="20" fontId="9" fillId="9" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1261,8 +1259,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{B7A010CA-C12C-468C-9723-D257390DAB07}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1613,16 +1612,16 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="6.5546875" style="34" customWidth="1"/>
-    <col min="3" max="3" width="5.6640625" style="34" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" style="34" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" style="34" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="19.33203125" style="34" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" style="34" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="12"/>
+    <col min="1" max="1" width="9.140625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" style="34" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" style="34" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="34" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="19.28515625" style="34" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" style="34" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
@@ -1636,12 +1635,12 @@
       <c r="H1" s="29"/>
       <c r="I1" s="29"/>
     </row>
-    <row r="2" spans="1:10" ht="13.95" customHeight="1" thickBot="1">
+    <row r="2" spans="1:10" ht="13.9" customHeight="1" thickBot="1">
       <c r="A2" s="18"/>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="79"/>
+      <c r="C2" s="76"/>
       <c r="D2" s="20" t="s">
         <v>0</v>
       </c>
@@ -1659,18 +1658,18 @@
       </c>
       <c r="I2" s="30"/>
     </row>
-    <row r="3" spans="1:10" s="13" customFormat="1" ht="20.399999999999999" customHeight="1">
+    <row r="3" spans="1:10" s="13" customFormat="1" ht="20.45" customHeight="1">
       <c r="A3" s="19"/>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="79" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="77" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="26"/>
@@ -1680,14 +1679,14 @@
       <c r="H3" s="3"/>
       <c r="I3" s="31"/>
     </row>
-    <row r="4" spans="1:10" s="13" customFormat="1" ht="20.399999999999999" customHeight="1" thickBot="1">
+    <row r="4" spans="1:10" s="13" customFormat="1" ht="20.45" customHeight="1" thickBot="1">
       <c r="A4" s="19"/>
-      <c r="B4" s="83"/>
+      <c r="B4" s="80"/>
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5" t="s">
         <v>26</v>
@@ -1696,21 +1695,21 @@
       <c r="I4" s="31"/>
       <c r="J4" s="32"/>
     </row>
-    <row r="5" spans="1:10" s="13" customFormat="1" ht="20.399999999999999" customHeight="1">
+    <row r="5" spans="1:10" s="13" customFormat="1" ht="20.45" customHeight="1">
       <c r="A5" s="19"/>
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="79" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="80" t="s">
+      <c r="D5" s="77" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="80" t="s">
+      <c r="F5" s="77" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="23" t="s">
@@ -1720,17 +1719,17 @@
       <c r="I5" s="31"/>
       <c r="J5" s="32"/>
     </row>
-    <row r="6" spans="1:10" s="13" customFormat="1" ht="20.399999999999999" customHeight="1" thickBot="1">
+    <row r="6" spans="1:10" s="13" customFormat="1" ht="20.45" customHeight="1" thickBot="1">
       <c r="A6" s="19"/>
-      <c r="B6" s="83"/>
+      <c r="B6" s="80"/>
       <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="81"/>
+      <c r="D6" s="78"/>
       <c r="E6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="81"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="5" t="s">
         <v>13</v>
       </c>
@@ -1740,9 +1739,9 @@
       <c r="I6" s="31"/>
       <c r="J6" s="32"/>
     </row>
-    <row r="7" spans="1:10" s="13" customFormat="1" ht="20.399999999999999" customHeight="1">
+    <row r="7" spans="1:10" s="13" customFormat="1" ht="20.45" customHeight="1">
       <c r="A7" s="19"/>
-      <c r="B7" s="82" t="s">
+      <c r="B7" s="79" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -1757,16 +1756,16 @@
       <c r="F7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="80" t="s">
+      <c r="G7" s="77" t="s">
         <v>5</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="31"/>
       <c r="J7" s="32"/>
     </row>
-    <row r="8" spans="1:10" s="13" customFormat="1" ht="20.399999999999999" customHeight="1" thickBot="1">
+    <row r="8" spans="1:10" s="13" customFormat="1" ht="20.45" customHeight="1" thickBot="1">
       <c r="A8" s="19"/>
-      <c r="B8" s="83"/>
+      <c r="B8" s="80"/>
       <c r="C8" s="4" t="s">
         <v>7</v>
       </c>
@@ -1779,16 +1778,16 @@
       <c r="F8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="81"/>
+      <c r="G8" s="78"/>
       <c r="H8" s="10" t="s">
         <v>27</v>
       </c>
       <c r="I8" s="31"/>
       <c r="J8" s="32"/>
     </row>
-    <row r="9" spans="1:10" s="13" customFormat="1" ht="20.399999999999999" customHeight="1">
+    <row r="9" spans="1:10" s="13" customFormat="1" ht="20.45" customHeight="1">
       <c r="A9" s="19"/>
-      <c r="B9" s="82" t="s">
+      <c r="B9" s="79" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -1798,7 +1797,7 @@
       <c r="E9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="80" t="s">
+      <c r="F9" s="77" t="s">
         <v>25</v>
       </c>
       <c r="G9" s="27" t="s">
@@ -1808,9 +1807,9 @@
       <c r="I9" s="31"/>
       <c r="J9" s="32"/>
     </row>
-    <row r="10" spans="1:10" s="13" customFormat="1" ht="20.399999999999999" customHeight="1" thickBot="1">
+    <row r="10" spans="1:10" s="13" customFormat="1" ht="20.45" customHeight="1" thickBot="1">
       <c r="A10" s="19"/>
-      <c r="B10" s="83"/>
+      <c r="B10" s="80"/>
       <c r="C10" s="4" t="s">
         <v>7</v>
       </c>
@@ -1818,7 +1817,7 @@
       <c r="E10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="81"/>
+      <c r="F10" s="78"/>
       <c r="G10" s="5"/>
       <c r="H10" s="10"/>
       <c r="I10" s="31"/>
@@ -1845,7 +1844,7 @@
       </c>
       <c r="J13" s="33"/>
     </row>
-    <row r="14" spans="1:10" ht="13.8" thickBot="1">
+    <row r="14" spans="1:10" ht="13.5" thickBot="1">
       <c r="B14"/>
       <c r="J14" s="33"/>
     </row>
@@ -2039,28 +2038,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7BD5C26-A9FD-4630-947E-E22400BE4D9A}">
   <dimension ref="B1:S16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="36" customWidth="1"/>
-    <col min="2" max="2" width="2.6640625" style="36" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" style="36" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="2.5546875" style="36" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" style="36" customWidth="1"/>
-    <col min="6" max="7" width="19.5546875" style="36" customWidth="1"/>
-    <col min="8" max="8" width="2.6640625" style="36" customWidth="1"/>
-    <col min="9" max="9" width="2.5546875" style="36" customWidth="1"/>
-    <col min="10" max="10" width="5.6640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="19.5546875" style="36" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="36"/>
+    <col min="1" max="1" width="8.85546875" style="36" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" style="36" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="36" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="2.5703125" style="36" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" style="36" customWidth="1"/>
+    <col min="6" max="7" width="19.5703125" style="36" customWidth="1"/>
+    <col min="8" max="8" width="2.7109375" style="36" customWidth="1"/>
+    <col min="9" max="9" width="2.5703125" style="36" customWidth="1"/>
+    <col min="10" max="10" width="5.7109375" style="36" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="19.5703125" style="36" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="15" thickBot="1"/>
+    <row r="1" spans="2:19" ht="14.25" thickBot="1"/>
     <row r="2" spans="2:19" ht="27" customHeight="1">
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="81" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="39" t="s">
@@ -2072,11 +2071,11 @@
       <c r="E2" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="76" t="s">
+      <c r="F2" s="70" t="s">
         <v>69</v>
       </c>
       <c r="G2" s="71"/>
-      <c r="H2" s="87" t="s">
+      <c r="H2" s="84" t="s">
         <v>3</v>
       </c>
       <c r="I2" s="40">
@@ -2091,7 +2090,7 @@
       </c>
     </row>
     <row r="3" spans="2:19" ht="27" customHeight="1">
-      <c r="B3" s="85"/>
+      <c r="B3" s="82"/>
       <c r="C3" s="41" t="s">
         <v>32</v>
       </c>
@@ -2107,7 +2106,7 @@
       <c r="G3" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="88"/>
+      <c r="H3" s="85"/>
       <c r="I3" s="42">
         <v>2</v>
       </c>
@@ -2117,12 +2116,12 @@
       <c r="K3" s="66" t="s">
         <v>48</v>
       </c>
-      <c r="L3" s="75" t="s">
+      <c r="L3" s="47" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="4" spans="2:19" ht="27" customHeight="1">
-      <c r="B4" s="85"/>
+      <c r="B4" s="82"/>
       <c r="C4" s="43" t="s">
         <v>33</v>
       </c>
@@ -2138,7 +2137,7 @@
       <c r="G4" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="88"/>
+      <c r="H4" s="85"/>
       <c r="I4" s="63">
         <v>3</v>
       </c>
@@ -2153,7 +2152,7 @@
       </c>
     </row>
     <row r="5" spans="2:19" ht="27" customHeight="1" thickBot="1">
-      <c r="B5" s="85"/>
+      <c r="B5" s="82"/>
       <c r="C5" s="44"/>
       <c r="D5" s="42">
         <v>4</v>
@@ -2167,7 +2166,7 @@
       <c r="G5" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="88"/>
+      <c r="H5" s="85"/>
       <c r="I5" s="42">
         <v>4</v>
       </c>
@@ -2180,7 +2179,7 @@
       <c r="L5" s="47"/>
     </row>
     <row r="6" spans="2:19" ht="27" customHeight="1" thickBot="1">
-      <c r="B6" s="86"/>
+      <c r="B6" s="83"/>
       <c r="C6" s="39" t="s">
         <v>31</v>
       </c>
@@ -2192,7 +2191,7 @@
       </c>
       <c r="F6" s="48"/>
       <c r="G6" s="49"/>
-      <c r="H6" s="89"/>
+      <c r="H6" s="86"/>
       <c r="I6" s="63">
         <v>5</v>
       </c>
@@ -2210,7 +2209,7 @@
       <c r="S6" s="37"/>
     </row>
     <row r="7" spans="2:19" ht="27" customHeight="1">
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="84" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="64"/>
@@ -2222,7 +2221,7 @@
       </c>
       <c r="F7" s="70"/>
       <c r="G7" s="71"/>
-      <c r="H7" s="88" t="s">
+      <c r="H7" s="85" t="s">
         <v>4</v>
       </c>
       <c r="I7" s="40">
@@ -2242,7 +2241,7 @@
       <c r="S7" s="37"/>
     </row>
     <row r="8" spans="2:19" ht="27" customHeight="1">
-      <c r="B8" s="88"/>
+      <c r="B8" s="85"/>
       <c r="C8" s="41" t="s">
         <v>32</v>
       </c>
@@ -2258,7 +2257,7 @@
       <c r="G8" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="H8" s="88"/>
+      <c r="H8" s="85"/>
       <c r="I8" s="42">
         <v>2</v>
       </c>
@@ -2278,7 +2277,7 @@
       <c r="S8" s="37"/>
     </row>
     <row r="9" spans="2:19" ht="27" customHeight="1">
-      <c r="B9" s="88"/>
+      <c r="B9" s="85"/>
       <c r="C9" s="43" t="s">
         <v>33</v>
       </c>
@@ -2294,7 +2293,7 @@
       <c r="G9" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="88"/>
+      <c r="H9" s="85"/>
       <c r="I9" s="63">
         <v>3</v>
       </c>
@@ -2314,7 +2313,7 @@
       <c r="S9" s="37"/>
     </row>
     <row r="10" spans="2:19" ht="27" customHeight="1" thickBot="1">
-      <c r="B10" s="88"/>
+      <c r="B10" s="85"/>
       <c r="C10" s="44"/>
       <c r="D10" s="42">
         <v>4</v>
@@ -2326,14 +2325,14 @@
       <c r="G10" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="88"/>
+      <c r="H10" s="85"/>
       <c r="I10" s="42">
         <v>4</v>
       </c>
       <c r="J10" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="K10" s="77" t="s">
+      <c r="K10" s="45" t="s">
         <v>71</v>
       </c>
       <c r="L10" s="47" t="s">
@@ -2346,7 +2345,7 @@
       <c r="S10" s="37"/>
     </row>
     <row r="11" spans="2:19" ht="27" customHeight="1" thickBot="1">
-      <c r="B11" s="88"/>
+      <c r="B11" s="85"/>
       <c r="C11" s="39" t="s">
         <v>31</v>
       </c>
@@ -2358,7 +2357,7 @@
       </c>
       <c r="F11" s="58"/>
       <c r="G11" s="51"/>
-      <c r="H11" s="89"/>
+      <c r="H11" s="86"/>
       <c r="I11" s="60">
         <v>5</v>
       </c>
@@ -2376,19 +2375,19 @@
       <c r="S11" s="37"/>
     </row>
     <row r="12" spans="2:19" ht="27" customHeight="1">
-      <c r="B12" s="87" t="s">
+      <c r="B12" s="84" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="90" t="s">
+      <c r="D12" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="84" t="s">
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="81" t="s">
         <v>37</v>
       </c>
       <c r="I12" s="63">
@@ -2408,15 +2407,15 @@
       <c r="S12" s="37"/>
     </row>
     <row r="13" spans="2:19" ht="27" customHeight="1">
-      <c r="B13" s="88"/>
+      <c r="B13" s="85"/>
       <c r="C13" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="85"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="82"/>
       <c r="I13" s="42">
         <v>2</v>
       </c>
@@ -2433,14 +2432,14 @@
       <c r="R13" s="37"/>
       <c r="S13" s="37"/>
     </row>
-    <row r="14" spans="2:19" s="37" customFormat="1" ht="29.4" thickBot="1">
-      <c r="B14" s="89"/>
+    <row r="14" spans="2:19" s="37" customFormat="1" ht="27.75" thickBot="1">
+      <c r="B14" s="86"/>
       <c r="C14" s="59"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="95"/>
-      <c r="H14" s="86"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="83"/>
       <c r="I14" s="60">
         <v>3</v>
       </c>
